--- a/ListHandOver/Training_User.xlsx
+++ b/ListHandOver/Training_User.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiVi CODE\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThuyHV\Study\Node-JS\ListHandOver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="ListHandOver" sheetId="1" r:id="rId1"/>
     <sheet name="Lập trình javascript căn bản" sheetId="4" r:id="rId2"/>
     <sheet name="Cấu trúc lập trình" sheetId="5" r:id="rId3"/>
     <sheet name="Function, Expression, methods" sheetId="6" r:id="rId4"/>
+    <sheet name=" Lập trình theo chuẩn ES5" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="216">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1237,6 +1238,236 @@
   </si>
   <si>
     <t>Lặp FUNCTION</t>
+  </si>
+  <si>
+    <t>Function expressions</t>
+  </si>
+  <si>
+    <t>Có thể khai báo hàm như một biểu thức, tương tự khai báo một biến.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Có thể khai báo một biểu thức hàm mà không cần đặt tên cho hàm.</t>
+  </si>
+  <si>
+    <t>Anonymous functions</t>
+  </si>
+  <si>
+    <t>Khai báo hàm mà không cần tên hàm vi diệu sương sương thôi. Anonymous functions có thể khai báo hàm mà không cần từ khóa là FUNCTION.</t>
+  </si>
+  <si>
+    <t>Lambda functions</t>
+  </si>
+  <si>
+    <t>Lưu ý: Dùng Anonymous functions:</t>
+  </si>
+  <si>
+    <t>phải định nghĩa function trước rồi mới dùng. Không thể gọi thực thi trước rồi mới định nghĩa Function.</t>
+  </si>
+  <si>
+    <t>Có thể thêm tên cho function nhưng không thể gọi thực thi bằng tên function.</t>
+  </si>
+  <si>
+    <t>Viết Anonymous functions bằng cách ngắn gọn hơn</t>
+  </si>
+  <si>
+    <t>Như ví dụ thì dog1 được viết lại từ dog.</t>
+  </si>
+  <si>
+    <t>Generator functions</t>
+  </si>
+  <si>
+    <t>Là một Function được thực thi nhiều lần mà: số lượng biến, giá trị biến, trạng thái các thành phần của hàm..v..v đều được lưu lại sau mỗi phiên sử dụng. Và có thể dùng tiếp tại 1 phiên gọi tiếp theo.</t>
+  </si>
+  <si>
+    <t>Lấy 1 ví dụ như sau:</t>
+  </si>
+  <si>
+    <r>
+      <t>Tại đây có dùng</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> console.log(i) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nên có log ra cho mình xem giá trị tăng của i</t>
+    </r>
+  </si>
+  <si>
+    <t>Nếu chỉ muốn coi thằng i tăng tới 2 thì có thể if ở đây</t>
+  </si>
+  <si>
+    <t>Giờ không dùng if trong vòng lặp mà muốn dừng lại coi thì thử dùng Generator functions, từ cái hàm ở trên sửa lại như bên dưới</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ở đây phải đặt thêm 1 cái biến </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>generator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để kêu cái hàm ra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>generator.next();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Được gọi nó chạy tới hàm loopByN thực thi đến khi gặp yield thì dừng lại rồi giá trị i lúc đầu 0 i++ lên = 1 nhớ ở đó</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>generator.next();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được gọi lần 2 sau cái chổ "xử lý gì đó khác" dù gọi lại là nó chạy vô hàm loopByN theo suy nghỉ thông thường thì chạy lại từ đầu cái vòng lặp nhưng KHÔNG</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi nảy nhớ là 1 thì giờ i là 1 chớ không phải 0 đâu nhé.</t>
+  </si>
+  <si>
+    <t>Cứ thế cứ gọi next là nó lại bay vô hàm rồi gặp yield là nó lại tạm dừng. Có thể dùng return để kết thúc hàm.</t>
+  </si>
+  <si>
+    <t>Một số function có sẵn trong Javascript</t>
+  </si>
+  <si>
+    <t>Với số</t>
+  </si>
+  <si>
+    <t>toFixed() hoặc toFixed(n) : Làm tròn tới n chữ số thập phân, không có n thì bỏ phần làm tròn</t>
+  </si>
+  <si>
+    <t>abs(num) : Trả về trị tuyệt đối của num</t>
+  </si>
+  <si>
+    <t>Với chữ</t>
+  </si>
+  <si>
+    <t>toLowerCase( ) : Trả về chuỗi ký tự thường</t>
+  </si>
+  <si>
+    <t>toUpperCase() : Trả về chuỗi ký tự in hoa</t>
+  </si>
+  <si>
+    <t>length : trả về độ dài của chuỗi</t>
+  </si>
+  <si>
+    <t>ĐÂY LÀ 1 TRONG SỐ RẤT ÍT HÀM CÓ SẴN  TRONG JAVASCRIPT CÒN RẤT NHIỀU HÀM CÓ SẴN KHÁC NỮA NHÉ!!!</t>
+  </si>
+  <si>
+    <t>Regular expression trong JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu thức chính quy (regular expressions ) là các mẫu dùng để tìm kiếm các bộ kí tự được kết hợp với nhau trong các chuỗi kí tự. </t>
+  </si>
+  <si>
+    <t>Có thể dùng để validate form trước khi submit một bộ giá trị nào đó chẳng hạn như mail, số điện thoại, password v…v</t>
+  </si>
+  <si>
+    <t>Như ví dụ dưới đây tạo 1 biểu thức đơn giản để nhận lại 1 mảng giá trị số không liên tiếp của chuỗi.</t>
+  </si>
+  <si>
+    <t>Những quy tắc dùng trong Regular Expression (Regex)</t>
+  </si>
+  <si>
+    <t>Ký tự thường</t>
+  </si>
+  <si>
+    <t>Ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Lặp</t>
+  </si>
+  <si>
+    <t>Khớp nhóm</t>
+  </si>
+  <si>
+    <t>Các phương pháp tạo Object</t>
+  </si>
+  <si>
+    <t>Sử dụng literal notation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object literal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là kiểu cú pháp tạo object sử dụng cặp dấu ngoặc {} và bên trong đó là danh sách các property (thuộc tính) của object.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1246,7 +1477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1327,6 +1558,30 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1452,7 +1707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1505,6 +1760,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2344,6 +2603,771 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419754</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152634</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="4686954" cy="1676634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>562479</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133448</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2857500"/>
+          <a:ext cx="3610479" cy="704948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219616</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="3877216" cy="1895740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>87183</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6972300"/>
+          <a:ext cx="10450383" cy="1876687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>277625</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9334500"/>
+          <a:ext cx="10031225" cy="971686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>534155</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>181218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11201400"/>
+          <a:ext cx="5410955" cy="1743318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57924</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>85923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14097000"/>
+          <a:ext cx="5544324" cy="1419423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>124863</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16211550"/>
+          <a:ext cx="7440063" cy="2086266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257977</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>123922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19431000"/>
+          <a:ext cx="5744377" cy="695422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277029</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>57216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20535900"/>
+          <a:ext cx="5763429" cy="476316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229398</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>38158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21526500"/>
+          <a:ext cx="5715798" cy="419158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238924</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>104843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22288500"/>
+          <a:ext cx="5725324" cy="485843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219871</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>181041</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23136225"/>
+          <a:ext cx="5706271" cy="476316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>363022</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>104913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25784175"/>
+          <a:ext cx="7678222" cy="990738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10462</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>95763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27660600"/>
+          <a:ext cx="6716062" cy="3677163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581957</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>181472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31861125"/>
+          <a:ext cx="6677957" cy="3562847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>486694</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>114741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35433000"/>
+          <a:ext cx="6582694" cy="3162741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>524799</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>19474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39462075"/>
+          <a:ext cx="6620799" cy="3038899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>562904</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>57610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="42862500"/>
+          <a:ext cx="6658904" cy="3296110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>534325</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>143294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="46672500"/>
+          <a:ext cx="6630325" cy="3000794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2610,10 +3634,10 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2626,41 +3650,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
@@ -4061,8 +5085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4405,8 +5429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4526,14 +5550,283 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="J24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="K76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="K77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
+      <c r="N87" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
+      <c r="N88" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
+      <c r="N89" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
+      <c r="N90" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14">
+      <c r="N91" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="B101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="B113" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="B117" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="B121" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="23"/>
+      <c r="B128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ListHandOver/Training_User.xlsx
+++ b/ListHandOver/Training_User.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ListHandOver" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Cấu trúc lập trình" sheetId="5" r:id="rId3"/>
     <sheet name="Function, Expression, methods" sheetId="6" r:id="rId4"/>
     <sheet name=" Lập trình theo chuẩn ES5" sheetId="7" r:id="rId5"/>
+    <sheet name="Kiến thức với mảng" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="266">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -646,142 +647,825 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>- cách add, update và remove các thu</t>
-    </r>
-    <r>
-      <rPr>
+    <t>18/ Workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19/ Event Loop </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>15/ Tìm hi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ộ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>c tính trong object.</t>
+      <t>u clean code</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>- Làm vi</t>
-    </r>
-    <r>
-      <rPr>
+      <t>16/ Tìm hi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ệ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>c v</t>
-    </r>
-    <r>
-      <rPr>
+      <t>u design pattern</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>17/ L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i các Objects Built-in mà JavaScipt cung c</t>
-    </r>
-    <r>
-      <rPr>
+      <t>p trình h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ấ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ướ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p.</t>
+      <t>ng function</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>- Các thao tác v</t>
-    </r>
-    <r>
-      <rPr>
+      <t>1/ L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i Array: truy c</t>
-    </r>
-    <r>
-      <rPr>
+      <t>p trình javascript căn b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ậ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p, get, update, remove, copy,..</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>- Cách s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý: </t>
+  </si>
+  <si>
+    <t>Ví dụ bên dưới</t>
+  </si>
+  <si>
+    <t>* Có thể khai báo lại và gán lại</t>
+  </si>
+  <si>
+    <t>* Vấn đề hoisting</t>
+  </si>
+  <si>
+    <t>Javascript khi thực hiện biên dịch loạt khai báo biến trước.</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>* Có thể gán lại nhưng KHÔNG được phép khai báo lại</t>
+  </si>
+  <si>
+    <t>Khai báo biến: trong khối {} mức truy cập nội trong khối, ngoài thì coi là biến global có thể truy cập ở mức toàn cục.</t>
+  </si>
+  <si>
+    <t>* VAR tạo thuộc tính toàn cục cho biến và truy cập được thông qua đối tượng WINDOW còn LET thì KHÔNG</t>
+  </si>
+  <si>
+    <t>Hoisting: LET không cho phép dùng biến trước khai báo như VAR</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Khai báo hằng: trong khối {} mức truy cập nội trong khối, ngoài thì coi là biến global có thể truy cập ở mức toàn cục.</t>
+  </si>
+  <si>
+    <t>* KHÔNG thể gán lại và KHÔNG được phép khai báo lại, 2 biến hằng không cùng 1 khối {} hoặc trong {} và bên ngoài thì có thể đặt tên giống nhau.</t>
+  </si>
+  <si>
+    <t>* Bắt buộc khởi gán giá trị ban đầu.</t>
+  </si>
+  <si>
+    <t>typeof</t>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>Trả về 1 chuỗi string cho biết LOẠI JAVASCRIPT của một biết. (Dùng kiểm tra kiểu của 1 giá trị)</t>
+  </si>
+  <si>
+    <t>instanceof</t>
+  </si>
+  <si>
+    <t>Trả về tính đúng của một đối tượng có thuộc về 1 lớp nhất định nào đó không.</t>
+  </si>
+  <si>
+    <t>Coding convention trong javascript</t>
+  </si>
+  <si>
+    <t>Là một đống quy tắc khi code do team quy định với nhau.</t>
+  </si>
+  <si>
+    <t>Để: rất nhiều cái lợi, ví như</t>
+  </si>
+  <si>
+    <t>Ông này đọc code ông kia chung 1 hệ quy chiếu dễ đọc dễ thấu hiểu nhau hơn</t>
+  </si>
+  <si>
+    <t>Review lại code của mình cũng đơn giản hơn</t>
+  </si>
+  <si>
+    <t>Bảo trị dễ hơn khi ai code cũng trình bày như ai</t>
+  </si>
+  <si>
+    <t>Tùy lựa chọn của team hoặc cá nhân mà tuân thủ theo 1 chuẩn Coding convention nào đó</t>
+  </si>
+  <si>
+    <t>Một số chuẩn được lấy từ google xuống dùng cho javascript như: Google JavaScript Style Guide, Airbnb JavaScript Style, Mozilla Coding style,Jquery Style Guide bla...bla</t>
+  </si>
+  <si>
+    <t>Nhưng nói 1 cách chung chung Coding convention nói chung và mấy cái chuẩn nêu ở trên nói riêng thì:</t>
+  </si>
+  <si>
+    <t>Nó là 1 bộ các quy tắc về:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>ử</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cú pháp lạc đà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: thuyDepTrai, conNhaNgheo, hocNgu, myValue, studentCode v…v (nôm na chữ đầu tiếng thứ nhất viết thường từ tiếng thứ 2 viết hoa chữ đầu lên)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cú pháp Pascal: ThuyDepTrai, ConNhaNgheo, HocNgu, MyValue, StudentCode v…v (Viết hoa chừ đầu mỗi tiếng lên)</t>
+  </si>
+  <si>
+    <t>Cú pháp snake_case (cú pháp con rắn): Thuy_Dep_Trai, con_nha_ngheo, HOC_NGU, My_Value, Student_Code v…v (Cái ni cà chớn hơn xíu là cách mỗi tiếng thì dùng dấu gạch dưới nên tùy dùng cho cái chi mà có thể viết hoa thường, )</t>
+  </si>
+  <si>
+    <t>snake_case có thể viết hoa chữ đầu tiên mỗi tiếng hoặc ko viết gì, tuy nhiên đừng viết cùng 1 tiếng mà chữ đầu hoa chữ giữa hoa xong chữ cuối không hoặc 1 quy tắc dị hợm nào đó như kiểu: sTuDENt_cODe, myCLAsS v…v. rất chướng khí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy tắc đặt tên </t>
+  </si>
+  <si>
+    <t>Quy tắc xuống hàng</t>
+  </si>
+  <si>
+    <t>Ở đây có một số thứ quy tắc đặt ra như</t>
+  </si>
+  <si>
+    <t>Kết thúc 1 xử ký for, while, if else, switch case…</t>
+  </si>
+  <si>
+    <t>Đầu và cuối 1 function</t>
+  </si>
+  <si>
+    <t>Nhiều cấp lồng nhau thì xuống hàng ở mỗi cấp</t>
+  </si>
+  <si>
+    <t>Một dòng code dài hơn n ký tự</t>
+  </si>
+  <si>
+    <t>v…v</t>
+  </si>
+  <si>
+    <t>Quy tắc số lượng</t>
+  </si>
+  <si>
+    <t>Một hàm chỉ không quá n dòng (n ở đây được quy định tùy theo yêu cầu của cá nhân hoặc tổ chức)</t>
+  </si>
+  <si>
+    <t>Một lớp không nên quá n dòng</t>
+  </si>
+  <si>
+    <t>Mỗi một hàm chỉ nên làm 1 nhiệm vụ nhất định. (Ví dụ isNumber thì chỉ dùng để kiểm tra giá trị nhập có phải là số, không nên thêm cờ để kiểm tra giá trị nhập có phải là Email không)</t>
+  </si>
+  <si>
+    <t>Các câu lệnh tối đa lồng nhau n cấp (chỉ nên có 4 vòng lặp for lồng hoặc tối đa if lồng trong if từ 6 lệnh thôi)</t>
+  </si>
+  <si>
+    <t>Mỗi dòng khai báo chỉ nên định danh 1 biến (var a = 1; đừng kiểu var a, b ,c ,d ,e, f = 1;)</t>
+  </si>
+  <si>
+    <t>Quy tắc comment</t>
+  </si>
+  <si>
+    <t>Có thể hạn chế comment code và viết code 1 cách sexy hơn.</t>
+  </si>
+  <si>
+    <t>Tuy nhiên nếu comment hãy ngắn gọn, dễ hiểu đừng làm văn tả cảnh</t>
+  </si>
+  <si>
+    <t>Một số quy tắc có thể do cá nhân tổ chức quy định như comment phải có hastag hoặc có user comment hoặc ngày tháng comment</t>
+  </si>
+  <si>
+    <t>Chỉ comment cho nội dung code xử lý ngay bên dưới (Đừng comment ở dòng 5 mà dòng 10 mới là ý nghĩa của nó)</t>
+  </si>
+  <si>
+    <t>Ngoài ra sẽ có các quy tắc khác đặt thù linh động áp dụng</t>
+  </si>
+  <si>
+    <t>Cách sử dụng: Phần 1</t>
+  </si>
+  <si>
+    <t>Cách sử dụng: Phần 2</t>
+  </si>
+  <si>
+    <t>Toán tử</t>
+  </si>
+  <si>
+    <t>Trong toán học thì như hình trên là đủ còn với javascript thì 1 vùng trời các thứ khác nữa như là:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25^2 (lũy thừa) </t>
+  </si>
+  <si>
+    <t>Toán tử logic &amp;&amp; (và), || (hoặc), ! (phủ định 1 biểu thức logic)</t>
+  </si>
+  <si>
+    <t>Cấu trúc lựa chọn</t>
+  </si>
+  <si>
+    <t>IF … ELSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dùng kiểu </t>
+  </si>
+  <si>
+    <t>Cũng như trên mà viết theo kiểu có vẻ xịn hơn chút</t>
+  </si>
+  <si>
+    <t>SWITCH … CASE</t>
+  </si>
+  <si>
+    <t>day = "holiday"</t>
+  </si>
+  <si>
+    <t>day = "4"</t>
+  </si>
+  <si>
+    <t>Cấu trúc lặp</t>
+  </si>
+  <si>
+    <t>Cơ bản</t>
+  </si>
+  <si>
+    <t>In giá trị từ 1 đến 10</t>
+  </si>
+  <si>
+    <t>Nâng cao</t>
+  </si>
+  <si>
+    <t>forEach</t>
+  </si>
+  <si>
+    <t>for … in</t>
+  </si>
+  <si>
+    <t>for...of</t>
+  </si>
+  <si>
+    <t>Block code trong javascript</t>
+  </si>
+  <si>
+    <t>Block Scoped là phạm vi trong một khối, nghĩa là chỉ hoạt động trong phạm vi được khai báo bởi cặp {}</t>
+  </si>
+  <si>
+    <t>1 và 2 là 2 block scoped (block scoped 1 bao hàm cả block scoped 2)</t>
+  </si>
+  <si>
+    <t>Lặp lồng nhau</t>
+  </si>
+  <si>
+    <t>Lặp FUNCTION</t>
+  </si>
+  <si>
+    <t>Function expressions</t>
+  </si>
+  <si>
+    <t>Có thể khai báo hàm như một biểu thức, tương tự khai báo một biến.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Có thể khai báo một biểu thức hàm mà không cần đặt tên cho hàm.</t>
+  </si>
+  <si>
+    <t>Anonymous functions</t>
+  </si>
+  <si>
+    <t>Khai báo hàm mà không cần tên hàm vi diệu sương sương thôi. Anonymous functions có thể khai báo hàm mà không cần từ khóa là FUNCTION.</t>
+  </si>
+  <si>
+    <t>Lambda functions</t>
+  </si>
+  <si>
+    <t>Lưu ý: Dùng Anonymous functions:</t>
+  </si>
+  <si>
+    <t>phải định nghĩa function trước rồi mới dùng. Không thể gọi thực thi trước rồi mới định nghĩa Function.</t>
+  </si>
+  <si>
+    <t>Có thể thêm tên cho function nhưng không thể gọi thực thi bằng tên function.</t>
+  </si>
+  <si>
+    <t>Viết Anonymous functions bằng cách ngắn gọn hơn</t>
+  </si>
+  <si>
+    <t>Như ví dụ thì dog1 được viết lại từ dog.</t>
+  </si>
+  <si>
+    <t>Generator functions</t>
+  </si>
+  <si>
+    <t>Là một Function được thực thi nhiều lần mà: số lượng biến, giá trị biến, trạng thái các thành phần của hàm..v..v đều được lưu lại sau mỗi phiên sử dụng. Và có thể dùng tiếp tại 1 phiên gọi tiếp theo.</t>
+  </si>
+  <si>
+    <t>Lấy 1 ví dụ như sau:</t>
+  </si>
+  <si>
+    <r>
+      <t>Tại đây có dùng</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> console.log(i) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nên có log ra cho mình xem giá trị tăng của i</t>
+    </r>
+  </si>
+  <si>
+    <t>Nếu chỉ muốn coi thằng i tăng tới 2 thì có thể if ở đây</t>
+  </si>
+  <si>
+    <t>Giờ không dùng if trong vòng lặp mà muốn dừng lại coi thì thử dùng Generator functions, từ cái hàm ở trên sửa lại như bên dưới</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ở đây phải đặt thêm 1 cái biến </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>generator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để kêu cái hàm ra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>generator.next();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Được gọi nó chạy tới hàm loopByN thực thi đến khi gặp yield thì dừng lại rồi giá trị i lúc đầu 0 i++ lên = 1 nhớ ở đó</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>generator.next();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được gọi lần 2 sau cái chổ "xử lý gì đó khác" dù gọi lại là nó chạy vô hàm loopByN theo suy nghỉ thông thường thì chạy lại từ đầu cái vòng lặp nhưng KHÔNG</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi nảy nhớ là 1 thì giờ i là 1 chớ không phải 0 đâu nhé.</t>
+  </si>
+  <si>
+    <t>Cứ thế cứ gọi next là nó lại bay vô hàm rồi gặp yield là nó lại tạm dừng. Có thể dùng return để kết thúc hàm.</t>
+  </si>
+  <si>
+    <t>Một số function có sẵn trong Javascript</t>
+  </si>
+  <si>
+    <t>Với số</t>
+  </si>
+  <si>
+    <t>toFixed() hoặc toFixed(n) : Làm tròn tới n chữ số thập phân, không có n thì bỏ phần làm tròn</t>
+  </si>
+  <si>
+    <t>abs(num) : Trả về trị tuyệt đối của num</t>
+  </si>
+  <si>
+    <t>Với chữ</t>
+  </si>
+  <si>
+    <t>toLowerCase( ) : Trả về chuỗi ký tự thường</t>
+  </si>
+  <si>
+    <t>toUpperCase() : Trả về chuỗi ký tự in hoa</t>
+  </si>
+  <si>
+    <t>length : trả về độ dài của chuỗi</t>
+  </si>
+  <si>
+    <t>ĐÂY LÀ 1 TRONG SỐ RẤT ÍT HÀM CÓ SẴN  TRONG JAVASCRIPT CÒN RẤT NHIỀU HÀM CÓ SẴN KHÁC NỮA NHÉ!!!</t>
+  </si>
+  <si>
+    <t>Regular expression trong JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu thức chính quy (regular expressions ) là các mẫu dùng để tìm kiếm các bộ kí tự được kết hợp với nhau trong các chuỗi kí tự. </t>
+  </si>
+  <si>
+    <t>Có thể dùng để validate form trước khi submit một bộ giá trị nào đó chẳng hạn như mail, số điện thoại, password v…v</t>
+  </si>
+  <si>
+    <t>Như ví dụ dưới đây tạo 1 biểu thức đơn giản để nhận lại 1 mảng giá trị số không liên tiếp của chuỗi.</t>
+  </si>
+  <si>
+    <t>Những quy tắc dùng trong Regular Expression (Regex)</t>
+  </si>
+  <si>
+    <t>Ký tự thường</t>
+  </si>
+  <si>
+    <t>Ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Lặp</t>
+  </si>
+  <si>
+    <t>Khớp nhóm</t>
+  </si>
+  <si>
+    <t>Các phương pháp tạo Object</t>
+  </si>
+  <si>
+    <t>Sử dụng literal notation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object literal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là kiểu cú pháp tạo object sử dụng cặp dấu ngoặc {} và bên trong đó là danh sách các property (thuộc tính) của object.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tổng kết:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đơn giản nhất để phân biệt khi nào xử dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Dùng while khi không thể dùng for hay ta sẽ dùng while khi điều kiện dừng không xác định (nhưng tránh tạo ra 1 vòng lặp vô hạn).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>với 1 chỉ số index</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>có thể dùng để duyệt giảm cho các yêu cầu duyệt ngược item của đối tượng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for...of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for...in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tường minh và dễ hiểu khi duyệt 1 đối tượng dạng danh sách, nhưng không thể duyệt ngược đối tượng danh sách được</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for...of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không dùng được để lặp object</t>
+    </r>
+  </si>
+  <si>
+    <t>Ngăn cách giữa các property là dấu phẩy. Mỗi property là một cặp giá trị name - value</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>Là một cấu trúc khởi tạo các thuộc tính của mỗi đối tượng.</t>
+  </si>
+  <si>
+    <t>Constructor một function</t>
+  </si>
+  <si>
+    <t>Constructor một class</t>
+  </si>
+  <si>
+    <t>Cách truy cập các properties và methods trong object.</t>
+  </si>
+  <si>
+    <r>
+      <t>- cách add, update và remove các thu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ộ</t>
     </r>
     <r>
       <rPr>
@@ -791,7 +1475,15 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> d</t>
+      <t>c tính trong object.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cách add, update và remove các thuộc tính trong object.</t>
+  </si>
+  <si>
+    <r>
+      <t>- Làm vi</t>
     </r>
     <r>
       <rPr>
@@ -799,7 +1491,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ụ</t>
+      <t>ệ</t>
     </r>
     <r>
       <rPr>
@@ -809,7 +1501,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ng l</t>
+      <t>c v</t>
     </r>
     <r>
       <rPr>
@@ -827,77 +1519,96 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p Array: Array.prototype.slice(), Array.from()…</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>18/ Workers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">19/ Event Loop </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>15/ Tìm hi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>i các Objects Built-in mà JavaScipt cung c</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u clean code</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>16/ Tìm hi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>p.</t>
+    </r>
+  </si>
+  <si>
+    <t>Làm việc với các Objects Built-in mà JavaScipt cung cấp.</t>
+  </si>
+  <si>
+    <t>Object.create()</t>
+  </si>
+  <si>
+    <t>tạo ra một Object mới và dùng object đó để mở rộng hơn cho một object</t>
+  </si>
+  <si>
+    <t>Object.keys()</t>
+  </si>
+  <si>
+    <t>Lấy danh sách key của object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object.values() </t>
+  </si>
+  <si>
+    <t>Lấy danh sách value của object</t>
+  </si>
+  <si>
+    <t>Object.entries()</t>
+  </si>
+  <si>
+    <t>Trả về danh sách các cặp key value ở dạng mảng</t>
+  </si>
+  <si>
+    <t>Object.assign()</t>
+  </si>
+  <si>
+    <t>Trộn 2 object lại với nhau</t>
+  </si>
+  <si>
+    <t>Object.freeze()</t>
+  </si>
+  <si>
+    <t>Ngăn chặn việc thay đổi thuộc tính của object</t>
+  </si>
+  <si>
+    <t>Object.seal()</t>
+  </si>
+  <si>
+    <t>Cho phép chỉnh sửa giá trị của thuộc tính sẳn có nhưng không có phép thêm - xóa thuộc tính của object</t>
+  </si>
+  <si>
+    <r>
+      <t>- Các thao tác v</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u design pattern</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>17/ L</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>i Array: truy c</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -906,567 +1617,141 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p trình h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>p, get, update, remove, copy,..</t>
+    </r>
+  </si>
+  <si>
+    <t>Các thao tác với Array: truy cập, get, update, remove, copy,..</t>
+  </si>
+  <si>
+    <t>Khai báo mảng</t>
+  </si>
+  <si>
+    <t>Hoặc</t>
+  </si>
+  <si>
+    <t>Truy cập mảng</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>remove, copy,.. Tại mục "Làm việc với các methods của Array: push, pop, slice, splice, forEach, map, filter, sort"</t>
+  </si>
+  <si>
+    <t>Làm việc với các methods của Array: push, pop, slice, splice, forEach, map, filter, sort</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>Thêm 1 hoặc nhiều phần tử vào cuối mảng</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>Xóa phần tử cuối cùng của mảng</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>Lấy ra 1 số lượng phần tử của mảng trong 1 khoảng chỉ định</t>
+  </si>
+  <si>
+    <t>splice</t>
+  </si>
+  <si>
+    <t>Thay thế một số lượng phần tử của mảng từ một vị trí chỉ định</t>
+  </si>
+  <si>
+    <t>Lặp qua từng giá trị của mảng</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>Tương tự foreach nhưng bên trong thân hàm có giá trị return sẽ có thể trả về giá trị truyền vào</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Dùng để lọc một số phần tử ra khỏi mảng</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>Sắp xếp mảng (mặc định sẽ là so sánh vị trí trong bảng mã unicode )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thực hành các bài tập thao tác với Array: xử lý dãy số, mảng đối tượng, Tìm kiếm, sắp xếp, đệ quy...</t>
+  </si>
+  <si>
+    <r>
+      <t>- Cách s</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ướ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ng function</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1/ L</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ậ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p trình javascript căn b</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ng l</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ả</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lưu ý: </t>
-  </si>
-  <si>
-    <t>Ví dụ bên dưới</t>
-  </si>
-  <si>
-    <t>* Có thể khai báo lại và gán lại</t>
-  </si>
-  <si>
-    <t>* Vấn đề hoisting</t>
-  </si>
-  <si>
-    <t>Javascript khi thực hiện biên dịch loạt khai báo biến trước.</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>* Có thể gán lại nhưng KHÔNG được phép khai báo lại</t>
-  </si>
-  <si>
-    <t>Khai báo biến: trong khối {} mức truy cập nội trong khối, ngoài thì coi là biến global có thể truy cập ở mức toàn cục.</t>
-  </si>
-  <si>
-    <t>* VAR tạo thuộc tính toàn cục cho biến và truy cập được thông qua đối tượng WINDOW còn LET thì KHÔNG</t>
-  </si>
-  <si>
-    <t>Hoisting: LET không cho phép dùng biến trước khai báo như VAR</t>
-  </si>
-  <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>Khai báo hằng: trong khối {} mức truy cập nội trong khối, ngoài thì coi là biến global có thể truy cập ở mức toàn cục.</t>
-  </si>
-  <si>
-    <t>* KHÔNG thể gán lại và KHÔNG được phép khai báo lại, 2 biến hằng không cùng 1 khối {} hoặc trong {} và bên ngoài thì có thể đặt tên giống nhau.</t>
-  </si>
-  <si>
-    <t>* Bắt buộc khởi gán giá trị ban đầu.</t>
-  </si>
-  <si>
-    <t>typeof</t>
-  </si>
-  <si>
-    <t>Ví dụ:</t>
-  </si>
-  <si>
-    <t>Trả về 1 chuỗi string cho biết LOẠI JAVASCRIPT của một biết. (Dùng kiểm tra kiểu của 1 giá trị)</t>
-  </si>
-  <si>
-    <t>instanceof</t>
-  </si>
-  <si>
-    <t>Trả về tính đúng của một đối tượng có thuộc về 1 lớp nhất định nào đó không.</t>
-  </si>
-  <si>
-    <t>Coding convention trong javascript</t>
-  </si>
-  <si>
-    <t>Là một đống quy tắc khi code do team quy định với nhau.</t>
-  </si>
-  <si>
-    <t>Để: rất nhiều cái lợi, ví như</t>
-  </si>
-  <si>
-    <t>Ông này đọc code ông kia chung 1 hệ quy chiếu dễ đọc dễ thấu hiểu nhau hơn</t>
-  </si>
-  <si>
-    <t>Review lại code của mình cũng đơn giản hơn</t>
-  </si>
-  <si>
-    <t>Bảo trị dễ hơn khi ai code cũng trình bày như ai</t>
-  </si>
-  <si>
-    <t>Tùy lựa chọn của team hoặc cá nhân mà tuân thủ theo 1 chuẩn Coding convention nào đó</t>
-  </si>
-  <si>
-    <t>Một số chuẩn được lấy từ google xuống dùng cho javascript như: Google JavaScript Style Guide, Airbnb JavaScript Style, Mozilla Coding style,Jquery Style Guide bla...bla</t>
-  </si>
-  <si>
-    <t>Nhưng nói 1 cách chung chung Coding convention nói chung và mấy cái chuẩn nêu ở trên nói riêng thì:</t>
-  </si>
-  <si>
-    <t>Nó là 1 bộ các quy tắc về:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cú pháp lạc đà</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: thuyDepTrai, conNhaNgheo, hocNgu, myValue, studentCode v…v (nôm na chữ đầu tiếng thứ nhất viết thường từ tiếng thứ 2 viết hoa chữ đầu lên)</t>
-    </r>
-  </si>
-  <si>
-    <t>Cú pháp Pascal: ThuyDepTrai, ConNhaNgheo, HocNgu, MyValue, StudentCode v…v (Viết hoa chừ đầu mỗi tiếng lên)</t>
-  </si>
-  <si>
-    <t>Cú pháp snake_case (cú pháp con rắn): Thuy_Dep_Trai, con_nha_ngheo, HOC_NGU, My_Value, Student_Code v…v (Cái ni cà chớn hơn xíu là cách mỗi tiếng thì dùng dấu gạch dưới nên tùy dùng cho cái chi mà có thể viết hoa thường, )</t>
-  </si>
-  <si>
-    <t>snake_case có thể viết hoa chữ đầu tiên mỗi tiếng hoặc ko viết gì, tuy nhiên đừng viết cùng 1 tiếng mà chữ đầu hoa chữ giữa hoa xong chữ cuối không hoặc 1 quy tắc dị hợm nào đó như kiểu: sTuDENt_cODe, myCLAsS v…v. rất chướng khí.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quy tắc đặt tên </t>
-  </si>
-  <si>
-    <t>Quy tắc xuống hàng</t>
-  </si>
-  <si>
-    <t>Ở đây có một số thứ quy tắc đặt ra như</t>
-  </si>
-  <si>
-    <t>Kết thúc 1 xử ký for, while, if else, switch case…</t>
-  </si>
-  <si>
-    <t>Đầu và cuối 1 function</t>
-  </si>
-  <si>
-    <t>Nhiều cấp lồng nhau thì xuống hàng ở mỗi cấp</t>
-  </si>
-  <si>
-    <t>Một dòng code dài hơn n ký tự</t>
-  </si>
-  <si>
-    <t>v…v</t>
-  </si>
-  <si>
-    <t>Quy tắc số lượng</t>
-  </si>
-  <si>
-    <t>Một hàm chỉ không quá n dòng (n ở đây được quy định tùy theo yêu cầu của cá nhân hoặc tổ chức)</t>
-  </si>
-  <si>
-    <t>Một lớp không nên quá n dòng</t>
-  </si>
-  <si>
-    <t>Mỗi một hàm chỉ nên làm 1 nhiệm vụ nhất định. (Ví dụ isNumber thì chỉ dùng để kiểm tra giá trị nhập có phải là số, không nên thêm cờ để kiểm tra giá trị nhập có phải là Email không)</t>
-  </si>
-  <si>
-    <t>Các câu lệnh tối đa lồng nhau n cấp (chỉ nên có 4 vòng lặp for lồng hoặc tối đa if lồng trong if từ 6 lệnh thôi)</t>
-  </si>
-  <si>
-    <t>Mỗi dòng khai báo chỉ nên định danh 1 biến (var a = 1; đừng kiểu var a, b ,c ,d ,e, f = 1;)</t>
-  </si>
-  <si>
-    <t>Quy tắc comment</t>
-  </si>
-  <si>
-    <t>Có thể hạn chế comment code và viết code 1 cách sexy hơn.</t>
-  </si>
-  <si>
-    <t>Tuy nhiên nếu comment hãy ngắn gọn, dễ hiểu đừng làm văn tả cảnh</t>
-  </si>
-  <si>
-    <t>Một số quy tắc có thể do cá nhân tổ chức quy định như comment phải có hastag hoặc có user comment hoặc ngày tháng comment</t>
-  </si>
-  <si>
-    <t>Chỉ comment cho nội dung code xử lý ngay bên dưới (Đừng comment ở dòng 5 mà dòng 10 mới là ý nghĩa của nó)</t>
-  </si>
-  <si>
-    <t>Ngoài ra sẽ có các quy tắc khác đặt thù linh động áp dụng</t>
-  </si>
-  <si>
-    <t>Cách sử dụng: Phần 1</t>
-  </si>
-  <si>
-    <t>Cách sử dụng: Phần 2</t>
-  </si>
-  <si>
-    <t>Toán tử</t>
-  </si>
-  <si>
-    <t>Trong toán học thì như hình trên là đủ còn với javascript thì 1 vùng trời các thứ khác nữa như là:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25^2 (lũy thừa) </t>
-  </si>
-  <si>
-    <t>Toán tử logic &amp;&amp; (và), || (hoặc), ! (phủ định 1 biểu thức logic)</t>
-  </si>
-  <si>
-    <t>Cấu trúc lựa chọn</t>
-  </si>
-  <si>
-    <t>IF … ELSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dùng kiểu </t>
-  </si>
-  <si>
-    <t>Cũng như trên mà viết theo kiểu có vẻ xịn hơn chút</t>
-  </si>
-  <si>
-    <t>SWITCH … CASE</t>
-  </si>
-  <si>
-    <t>day = "holiday"</t>
-  </si>
-  <si>
-    <t>day = "4"</t>
-  </si>
-  <si>
-    <t>Cấu trúc lặp</t>
-  </si>
-  <si>
-    <t>Cơ bản</t>
-  </si>
-  <si>
-    <t>In giá trị từ 1 đến 10</t>
-  </si>
-  <si>
-    <t>Nâng cao</t>
-  </si>
-  <si>
-    <t>forEach</t>
-  </si>
-  <si>
-    <t>for … in</t>
-  </si>
-  <si>
-    <t>for...of</t>
-  </si>
-  <si>
-    <t>Block code trong javascript</t>
-  </si>
-  <si>
-    <t>Block Scoped là phạm vi trong một khối, nghĩa là chỉ hoạt động trong phạm vi được khai báo bởi cặp {}</t>
-  </si>
-  <si>
-    <t>1 và 2 là 2 block scoped (block scoped 1 bao hàm cả block scoped 2)</t>
-  </si>
-  <si>
-    <t>Lặp lồng nhau</t>
-  </si>
-  <si>
-    <t>Lặp FUNCTION</t>
-  </si>
-  <si>
-    <t>Function expressions</t>
-  </si>
-  <si>
-    <t>Có thể khai báo hàm như một biểu thức, tương tự khai báo một biến.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Có thể khai báo một biểu thức hàm mà không cần đặt tên cho hàm.</t>
-  </si>
-  <si>
-    <t>Anonymous functions</t>
-  </si>
-  <si>
-    <t>Khai báo hàm mà không cần tên hàm vi diệu sương sương thôi. Anonymous functions có thể khai báo hàm mà không cần từ khóa là FUNCTION.</t>
-  </si>
-  <si>
-    <t>Lambda functions</t>
-  </si>
-  <si>
-    <t>Lưu ý: Dùng Anonymous functions:</t>
-  </si>
-  <si>
-    <t>phải định nghĩa function trước rồi mới dùng. Không thể gọi thực thi trước rồi mới định nghĩa Function.</t>
-  </si>
-  <si>
-    <t>Có thể thêm tên cho function nhưng không thể gọi thực thi bằng tên function.</t>
-  </si>
-  <si>
-    <t>Viết Anonymous functions bằng cách ngắn gọn hơn</t>
-  </si>
-  <si>
-    <t>Như ví dụ thì dog1 được viết lại từ dog.</t>
-  </si>
-  <si>
-    <t>Generator functions</t>
-  </si>
-  <si>
-    <t>Là một Function được thực thi nhiều lần mà: số lượng biến, giá trị biến, trạng thái các thành phần của hàm..v..v đều được lưu lại sau mỗi phiên sử dụng. Và có thể dùng tiếp tại 1 phiên gọi tiếp theo.</t>
-  </si>
-  <si>
-    <t>Lấy 1 ví dụ như sau:</t>
-  </si>
-  <si>
-    <r>
-      <t>Tại đây có dùng</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> console.log(i) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nên có log ra cho mình xem giá trị tăng của i</t>
-    </r>
-  </si>
-  <si>
-    <t>Nếu chỉ muốn coi thằng i tăng tới 2 thì có thể if ở đây</t>
-  </si>
-  <si>
-    <t>Giờ không dùng if trong vòng lặp mà muốn dừng lại coi thì thử dùng Generator functions, từ cái hàm ở trên sửa lại như bên dưới</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ở đây phải đặt thêm 1 cái biến </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>generator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> để kêu cái hàm ra</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>generator.next();</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Được gọi nó chạy tới hàm loopByN thực thi đến khi gặp yield thì dừng lại rồi giá trị i lúc đầu 0 i++ lên = 1 nhớ ở đó</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>generator.next();</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> được gọi lần 2 sau cái chổ "xử lý gì đó khác" dù gọi lại là nó chạy vô hàm loopByN theo suy nghỉ thông thường thì chạy lại từ đầu cái vòng lặp nhưng KHÔNG</t>
-    </r>
-  </si>
-  <si>
-    <t>Khi nảy nhớ là 1 thì giờ i là 1 chớ không phải 0 đâu nhé.</t>
-  </si>
-  <si>
-    <t>Cứ thế cứ gọi next là nó lại bay vô hàm rồi gặp yield là nó lại tạm dừng. Có thể dùng return để kết thúc hàm.</t>
-  </si>
-  <si>
-    <t>Một số function có sẵn trong Javascript</t>
-  </si>
-  <si>
-    <t>Với số</t>
-  </si>
-  <si>
-    <t>toFixed() hoặc toFixed(n) : Làm tròn tới n chữ số thập phân, không có n thì bỏ phần làm tròn</t>
-  </si>
-  <si>
-    <t>abs(num) : Trả về trị tuyệt đối của num</t>
-  </si>
-  <si>
-    <t>Với chữ</t>
-  </si>
-  <si>
-    <t>toLowerCase( ) : Trả về chuỗi ký tự thường</t>
-  </si>
-  <si>
-    <t>toUpperCase() : Trả về chuỗi ký tự in hoa</t>
-  </si>
-  <si>
-    <t>length : trả về độ dài của chuỗi</t>
-  </si>
-  <si>
-    <t>ĐÂY LÀ 1 TRONG SỐ RẤT ÍT HÀM CÓ SẴN  TRONG JAVASCRIPT CÒN RẤT NHIỀU HÀM CÓ SẴN KHÁC NỮA NHÉ!!!</t>
-  </si>
-  <si>
-    <t>Regular expression trong JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biểu thức chính quy (regular expressions ) là các mẫu dùng để tìm kiếm các bộ kí tự được kết hợp với nhau trong các chuỗi kí tự. </t>
-  </si>
-  <si>
-    <t>Có thể dùng để validate form trước khi submit một bộ giá trị nào đó chẳng hạn như mail, số điện thoại, password v…v</t>
-  </si>
-  <si>
-    <t>Như ví dụ dưới đây tạo 1 biểu thức đơn giản để nhận lại 1 mảng giá trị số không liên tiếp của chuỗi.</t>
-  </si>
-  <si>
-    <t>Những quy tắc dùng trong Regular Expression (Regex)</t>
-  </si>
-  <si>
-    <t>Ký tự thường</t>
-  </si>
-  <si>
-    <t>Ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Lặp</t>
-  </si>
-  <si>
-    <t>Khớp nhóm</t>
-  </si>
-  <si>
-    <t>Các phương pháp tạo Object</t>
-  </si>
-  <si>
-    <t>Sử dụng literal notation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Object literal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> là kiểu cú pháp tạo object sử dụng cặp dấu ngoặc {} và bên trong đó là danh sách các property (thuộc tính) của object.</t>
+      <t>p Array: Array.prototype.slice(), Array.from()…</t>
     </r>
   </si>
 </sst>
@@ -1477,7 +1762,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1586,8 +1871,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,6 +1900,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1772,6 +2069,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2490,13 +2791,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>56762</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>95061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2528,13 +2829,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>390835</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>133551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2566,13 +2867,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>486949</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>28725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2913,13 +3214,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257977</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>123922</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2951,13 +3252,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>277029</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>57216</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2989,13 +3290,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>229398</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>38158</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3027,13 +3328,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238924</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>104843</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3065,13 +3366,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>219871</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>181041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3103,13 +3404,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>363022</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>104913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3141,13 +3442,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>10462</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>95763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3179,13 +3480,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>226</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>581957</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>181472</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3217,13 +3518,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>245</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>486694</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>261</xdr:row>
       <xdr:rowOff>114741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3255,13 +3556,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>524799</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>19474</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3293,13 +3594,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>225</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>562904</xdr:colOff>
-      <xdr:row>242</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>57610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3331,13 +3632,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>534325</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>143294</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3357,6 +3658,966 @@
         <a:xfrm>
           <a:off x="0" y="46672500"/>
           <a:ext cx="6630325" cy="3000794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>229483</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="6325483" cy="1114581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>286556</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3238500"/>
+          <a:ext cx="5772956" cy="2143424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>467556</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>124188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5905500"/>
+          <a:ext cx="5953956" cy="2600688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105385</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9115425"/>
+          <a:ext cx="4372585" cy="2324424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>239434</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>162320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12001500"/>
+          <a:ext cx="9383434" cy="2829320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>496560</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>143113</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15963900"/>
+          <a:ext cx="9030960" cy="1705213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134049</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>57351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18430875"/>
+          <a:ext cx="5010849" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457944</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>9731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20440650"/>
+          <a:ext cx="5334744" cy="1476581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>401127</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>85923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22669500"/>
+          <a:ext cx="7716327" cy="1419423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>534155</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>95564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24707850"/>
+          <a:ext cx="5410955" cy="2248214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277114</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>47956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27584400"/>
+          <a:ext cx="6373114" cy="2372056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>315220</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="30575250"/>
+          <a:ext cx="6411220" cy="2905530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>524374</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="3572374" cy="295316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38701</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1333500"/>
+          <a:ext cx="4305901" cy="228632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495454</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="1105054" cy="362001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>48312</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="4925112" cy="533474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38786</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3810000"/>
+          <a:ext cx="4915586" cy="952633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>524799</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>86029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="6620799" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>467556</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8867775"/>
+          <a:ext cx="5953956" cy="1428949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38956</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>162126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10915650"/>
+          <a:ext cx="6134956" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315135</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13115925"/>
+          <a:ext cx="5801535" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200649</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76378</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15182850"/>
+          <a:ext cx="4467849" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>143576</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>181119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17059275"/>
+          <a:ext cx="5020376" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19648</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>181107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18859500"/>
+          <a:ext cx="4286848" cy="943107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286471</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>89</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20507325"/>
+          <a:ext cx="5163271" cy="638264"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3633,11 +4894,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3709,7 +4970,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="10"/>
@@ -4013,7 +5274,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>83</v>
+        <v>223</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="10"/>
@@ -4029,7 +5290,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="10"/>
@@ -4061,7 +5322,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="10"/>
@@ -4109,7 +5370,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="10"/>
@@ -4781,7 +6042,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="10"/>
@@ -4797,7 +6058,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="10"/>
@@ -4813,7 +6074,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="10"/>
@@ -4829,7 +6090,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="10"/>
@@ -4845,7 +6106,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="10"/>
@@ -5093,134 +6354,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -5228,194 +6489,194 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="B90" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="B91" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="C93" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="B96" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="C97" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="C98" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="C99" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="C100" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="C101" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="B104" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="B114" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119" spans="1:3">
       <c r="B119" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5427,360 +6688,384 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C15" s="17"/>
     </row>
     <row r="17" spans="1:6">
       <c r="F17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="F20" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="C45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="G85" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="20" t="s">
+      <c r="B94" s="16"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="B95" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="G76" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B85" s="16"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="B86" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="B96" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" s="17"/>
+      <c r="C105" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N244"/>
+  <dimension ref="A1:N303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="J24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="B73" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="K76" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="K77" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="2:14">
       <c r="B84" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="2:14">
       <c r="N87" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="2:14">
       <c r="N88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="2:14">
       <c r="N89" s="21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="2:14">
       <c r="N90" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="2:14">
       <c r="N91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="B160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="B166" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="20" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+    </row>
+    <row r="172" spans="1:2">
+      <c r="B172" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="B101" t="s">
+    <row r="176" spans="1:2">
+      <c r="B176" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="B107" t="s">
+    <row r="180" spans="1:4">
+      <c r="B180" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
+    <row r="186" spans="1:4">
+      <c r="A186" s="24" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="B113" t="s">
+    <row r="187" spans="1:4">
+      <c r="A187" s="23"/>
+      <c r="B187" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="20" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="B117" t="s">
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
+      <c r="D189" s="20"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="B121" t="s">
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="24" t="s">
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="23"/>
-      <c r="B128" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="20" t="s">
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
         <v>204</v>
       </c>
-      <c r="B130" s="20"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
+    <row r="283" spans="2:2">
+      <c r="B283" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
+    <row r="303" spans="2:2">
+      <c r="B303" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5792,17 +7077,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5816,17 +7099,325 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="29"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="B83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95" s="29"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="29"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="29"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="B118" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="30"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B128" s="29"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="B129" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="B143" s="29"/>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="B144" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B159" s="29"/>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="B160" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="M105" sqref="M105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="B31" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="C68" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="C89" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="C98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="C107" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ListHandOver/Training_User.xlsx
+++ b/ListHandOver/Training_User.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="ListHandOver" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Function, Expression, methods" sheetId="6" r:id="rId4"/>
     <sheet name=" Lập trình theo chuẩn ES5" sheetId="7" r:id="rId5"/>
     <sheet name="Kiến thức với mảng" sheetId="8" r:id="rId6"/>
+    <sheet name="Scope của variables" sheetId="9" r:id="rId7"/>
+    <sheet name="Làm việc với con trỏ this" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="311">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1753,6 +1755,401 @@
       </rPr>
       <t>p Array: Array.prototype.slice(), Array.from()…</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Viết một hàm filterRange trả về mảng đã loại bỏ tất cả các giá trị ngoại trừ những giá trị nằm giữa giá trị from và to.</t>
+    </r>
+  </si>
+  <si>
+    <t>Xử lý dãy số</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho mảng số nguyên dương tăng (chưa được sắp xếp) khuyết 1 phần tử, tìm phần tử bị thiếu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho mảng số nguyên tính tổng các số nguyên là số chẳn.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mảng đối tượng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho mảng đối tượng học sinh lấy ra danh sách tên học sinh có tuổi lớn hơn k.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho mảng đối tượng nhân viên tính lương trung bình của cả công ty.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm kiếm toàn bộ mã thuộc phòng ban là giám đốc GD.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm kiếm toàn bộ số nguyên tố trong mảng số nguyên.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm kiếm toàn bộ nhân viên có lương từ 10 triệu trở lên.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sắp xếp</t>
+  </si>
+  <si>
+    <t>Đệ quy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sắp xếp dãy số nguyên tăng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sắp xếp dãy số nguyên giảm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sắp xếp danh sách nhân viên theo thứ tự tăng về tuổi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Xây dựng chức năng đếm ngược chúc mừng năm mới.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm số fibonacci thứ N.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cách sử dụng lớp Array: Array.prototype.slice(), Array.from()…</t>
+  </si>
+  <si>
+    <t>Array.prototype.slice()</t>
+  </si>
+  <si>
+    <t>Dùng để lấy số lượng phần tử của mảng từ vị trí start đến end (Tuy nhiên sẽ không lấy giá trị ở vị trí end)</t>
+  </si>
+  <si>
+    <t>Array.from()</t>
+  </si>
+  <si>
+    <t>Có thể tạo mảng từ một dữ liệu khác</t>
+  </si>
+  <si>
+    <t>Array.includes()</t>
+  </si>
+  <si>
+    <t>Kiểm tra sự tồn tại của item nằm trong mảng</t>
+  </si>
+  <si>
+    <t>Array.some()</t>
+  </si>
+  <si>
+    <t>Kiểm tra array có bất kỳ phần tử nào thỏa mãn 1 điều kiện nào đó</t>
+  </si>
+  <si>
+    <t>Array.every()</t>
+  </si>
+  <si>
+    <t>Kiểm tra toàn bộ phần tử array có thỏa mãn 1 điều kiện nào đó</t>
+  </si>
+  <si>
+    <t>Global scope</t>
+  </si>
+  <si>
+    <t>Các biến khai báo ngoài Function, biến đó được dùng chung cho các Function, có thể thay đổi giá trị của biến trong các Function.</t>
+  </si>
+  <si>
+    <t>Scope giới hạn của các biến khai báo với let, const</t>
+  </si>
+  <si>
+    <t>Ở global scope từ khóa var tạo ra thuộc tính mới cho global object (this), còn let thì không.</t>
+  </si>
+  <si>
+    <t>Các biến được khai báo var là function scope, nếu biến được khai báo trong một block scope thì biến đó cũng có thể truy cập được  bên ngoài.</t>
+  </si>
+  <si>
+    <t>Các biến được khai báo let là block cope, nếu biến được khai báo trong một block scope thì biến đó không thể truy cập được  bên ngoài.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Const tương tự let nhưng không được phép thay đổi giá trị </t>
+  </si>
+  <si>
+    <t>Scope của variables trong functions</t>
+  </si>
+  <si>
+    <t>Các biến khai báo var, let, const bên trong function scope thì không thể truy cập được bên ngoài function</t>
+  </si>
+  <si>
+    <t>Scope của variables trong block code</t>
+  </si>
+  <si>
+    <t>Đối với var sẽ chỉ giới hạn ở trong function scope nên nếu dùng var khai báo trong một block scope thì có thể truy cập bên ngoài được.</t>
+  </si>
+  <si>
+    <t>Tuy nhiên sử dụng let và const thì chỉ có thể truy cập được ở mức block scope.</t>
+  </si>
+  <si>
+    <t>Scope của variables trong Closure functions</t>
+  </si>
+  <si>
+    <t>Biến số nằm trong hàm có thể truy cập được từ một hàm nằm bên trong hàm đó</t>
+  </si>
+  <si>
+    <t>Tìm hiểu các cách binding(liên kết) giữa "this" với methods như: Implicit binding, Explicit binding, "new" binding, Lexical binding, default/window binding</t>
+  </si>
+  <si>
+    <t>Implicit binding</t>
   </si>
 </sst>
 </file>
@@ -2061,6 +2458,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2069,10 +2470,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4626,6 +5023,961 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67705</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>47951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22098000"/>
+          <a:ext cx="7382905" cy="2333951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>115252</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>114662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25146000"/>
+          <a:ext cx="6820852" cy="2591162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>96199</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>152767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28384500"/>
+          <a:ext cx="6801799" cy="2629267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>544277</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>86136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="32004000"/>
+          <a:ext cx="9688277" cy="2943636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>496305</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>143267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35623500"/>
+          <a:ext cx="7201905" cy="2810267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448844</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>9790</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39452550"/>
+          <a:ext cx="8373644" cy="1895740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>77232</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>86029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41910000"/>
+          <a:ext cx="7392432" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>572601</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>114582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="44577000"/>
+          <a:ext cx="7887801" cy="2019582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>48908</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>85843</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47625000"/>
+          <a:ext cx="9192908" cy="847843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>544192</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>66795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48929925"/>
+          <a:ext cx="9078592" cy="857370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>334528</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>19345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="50292000"/>
+          <a:ext cx="8259328" cy="2114845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48738</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>143251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="53263800"/>
+          <a:ext cx="7973538" cy="2695951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601010</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>171602</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="56426100"/>
+          <a:ext cx="6697010" cy="1086002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>296763</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="58807350"/>
+          <a:ext cx="10659963" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39637</xdr:colOff>
+      <xdr:row>322</xdr:row>
+      <xdr:rowOff>76255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61026675"/>
+          <a:ext cx="11012437" cy="390580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>248791</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>38143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61645800"/>
+          <a:ext cx="8173591" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220042</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>114388</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="62922150"/>
+          <a:ext cx="6925642" cy="628738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591483</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>28677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="64255650"/>
+          <a:ext cx="6687483" cy="733527"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>410738</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>114475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="65913000"/>
+          <a:ext cx="8335538" cy="1257475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>105811</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1247775"/>
+          <a:ext cx="7421011" cy="790685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>420009</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2571750"/>
+          <a:ext cx="6516009" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>316071</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4381500"/>
+          <a:ext cx="12508071" cy="1124107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>277965</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6096000"/>
+          <a:ext cx="12469965" cy="1076475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>354176</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>181133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8191500"/>
+          <a:ext cx="12546176" cy="1133633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201244</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11249025"/>
+          <a:ext cx="8735644" cy="2219635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4894,11 +6246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4911,41 +6263,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
@@ -6346,9 +7698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -6690,9 +8040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -7079,7 +8427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -7166,10 +8514,10 @@
       <c r="G80" s="17"/>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="B82" s="29"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
@@ -7177,10 +8525,10 @@
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B95" s="29"/>
+      <c r="B95" s="26"/>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
@@ -7188,10 +8536,10 @@
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="29" t="s">
+      <c r="A106" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B106" s="29"/>
+      <c r="B106" s="26"/>
     </row>
     <row r="107" spans="1:2">
       <c r="B107" t="s">
@@ -7199,10 +8547,10 @@
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="29" t="s">
+      <c r="A117" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="B117" s="29"/>
+      <c r="B117" s="26"/>
     </row>
     <row r="118" spans="1:2">
       <c r="B118" t="s">
@@ -7210,13 +8558,13 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="30"/>
+      <c r="A120" s="27"/>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="B128" s="29"/>
+      <c r="B128" s="26"/>
     </row>
     <row r="129" spans="1:2">
       <c r="B129" t="s">
@@ -7224,10 +8572,10 @@
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="29" t="s">
+      <c r="A143" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="B143" s="29"/>
+      <c r="B143" s="26"/>
     </row>
     <row r="144" spans="1:2">
       <c r="B144" t="s">
@@ -7235,10 +8583,10 @@
       </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="29" t="s">
+      <c r="A159" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="B159" s="29"/>
+      <c r="B159" s="26"/>
     </row>
     <row r="160" spans="1:2">
       <c r="B160" t="s">
@@ -7254,10 +8602,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L345"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="M105" sqref="M105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7416,8 +8764,309 @@
       <c r="I113" s="20"/>
       <c r="J113" s="20"/>
     </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B165" s="17"/>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B304" s="20"/>
+      <c r="C304" s="20"/>
+      <c r="D304" s="20"/>
+      <c r="E304" s="20"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="20"/>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B306" s="17"/>
+      <c r="C306" s="17"/>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B318" s="17"/>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B328" s="17"/>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="B335" s="17"/>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="B343" s="17"/>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" s="17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ListHandOver/Training_User.xlsx
+++ b/ListHandOver/Training_User.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Kiến thức với mảng" sheetId="8" r:id="rId6"/>
     <sheet name="Scope của variables" sheetId="9" r:id="rId7"/>
     <sheet name="Làm việc với con trỏ this" sheetId="10" r:id="rId8"/>
+    <sheet name="CTDL và giải thuật" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="354">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -362,43 +363,79 @@
   </si>
   <si>
     <r>
-      <t>- cách s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ử</t>
-    </r>
-    <r>
-      <rPr>
+      <t>14/ Tìm hi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ụ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>u chuyên sâu các khái ni</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ng ph</t>
+      <t>m sau</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>- IIFE</t>
+  </si>
+  <si>
+    <t>- Closures</t>
+  </si>
+  <si>
+    <t>- Hoisting</t>
+  </si>
+  <si>
+    <t>- Strict mode</t>
+  </si>
+  <si>
+    <t>- This keyword</t>
+  </si>
+  <si>
+    <t>- bind, call, apply</t>
+  </si>
+  <si>
+    <t>- Catching, throwing errors</t>
+  </si>
+  <si>
+    <t>- Promise, Async, await</t>
+  </si>
+  <si>
+    <r>
+      <t>- C</t>
     </r>
     <r>
       <rPr>
@@ -406,7 +443,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ươ</t>
+      <t>ấ</t>
     </r>
     <r>
       <rPr>
@@ -416,7 +453,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ng th</t>
+      <t>u trúc l</t>
     </r>
     <r>
       <rPr>
@@ -424,7 +461,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ứ</t>
+      <t>ặ</t>
     </r>
     <r>
       <rPr>
@@ -434,7 +471,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>c: call, apply, bind v</t>
+      <t>p v</t>
     </r>
     <r>
       <rPr>
@@ -452,83 +489,102 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i functions</t>
+      <t>i: while..., do...while, for, forEach, for in, for of,...</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>- S</t>
-    </r>
-    <r>
-      <rPr>
+    <t>18/ Workers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">19/ Event Loop </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>15/ Tìm hi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ự</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> khác nhau c</t>
-    </r>
-    <r>
-      <rPr>
+      <t>u clean code</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>16/ Tìm hi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ủ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>a "this" v</t>
-    </r>
-    <r>
-      <rPr>
+      <t>u design pattern</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>17/ L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ớ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i function, expression function và arrow function.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>14/ Tìm hi</t>
+      <t>p trình h</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ể</t>
+        <family val="2"/>
+      </rPr>
+      <t>ướ</t>
     </r>
     <r>
       <rPr>
@@ -539,17 +595,22 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u chuyên sâu các khái ni</t>
+      <t>ng function</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1/ L</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ệ</t>
+        <family val="2"/>
+      </rPr>
+      <t>ậ</t>
     </r>
     <r>
       <rPr>
@@ -560,63 +621,698 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>m sau</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>- IIFE</t>
-  </si>
-  <si>
-    <t>- Closures</t>
-  </si>
-  <si>
-    <t>- Hoisting</t>
-  </si>
-  <si>
-    <t>- Strict mode</t>
-  </si>
-  <si>
-    <t>- This keyword</t>
-  </si>
-  <si>
-    <t>- bind, call, apply</t>
-  </si>
-  <si>
-    <t>- Catching, throwing errors</t>
-  </si>
-  <si>
-    <t>- Promise, Async, await</t>
-  </si>
-  <si>
-    <r>
-      <t>- C</t>
-    </r>
-    <r>
-      <rPr>
+      <t>p trình javascript căn b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ấ</t>
-    </r>
-    <r>
-      <rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u trúc l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý: </t>
+  </si>
+  <si>
+    <t>Ví dụ bên dưới</t>
+  </si>
+  <si>
+    <t>* Có thể khai báo lại và gán lại</t>
+  </si>
+  <si>
+    <t>* Vấn đề hoisting</t>
+  </si>
+  <si>
+    <t>Javascript khi thực hiện biên dịch loạt khai báo biến trước.</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>* Có thể gán lại nhưng KHÔNG được phép khai báo lại</t>
+  </si>
+  <si>
+    <t>Khai báo biến: trong khối {} mức truy cập nội trong khối, ngoài thì coi là biến global có thể truy cập ở mức toàn cục.</t>
+  </si>
+  <si>
+    <t>* VAR tạo thuộc tính toàn cục cho biến và truy cập được thông qua đối tượng WINDOW còn LET thì KHÔNG</t>
+  </si>
+  <si>
+    <t>Hoisting: LET không cho phép dùng biến trước khai báo như VAR</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Khai báo hằng: trong khối {} mức truy cập nội trong khối, ngoài thì coi là biến global có thể truy cập ở mức toàn cục.</t>
+  </si>
+  <si>
+    <t>* KHÔNG thể gán lại và KHÔNG được phép khai báo lại, 2 biến hằng không cùng 1 khối {} hoặc trong {} và bên ngoài thì có thể đặt tên giống nhau.</t>
+  </si>
+  <si>
+    <t>* Bắt buộc khởi gán giá trị ban đầu.</t>
+  </si>
+  <si>
+    <t>typeof</t>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>Trả về 1 chuỗi string cho biết LOẠI JAVASCRIPT của một biết. (Dùng kiểm tra kiểu của 1 giá trị)</t>
+  </si>
+  <si>
+    <t>instanceof</t>
+  </si>
+  <si>
+    <t>Trả về tính đúng của một đối tượng có thuộc về 1 lớp nhất định nào đó không.</t>
+  </si>
+  <si>
+    <t>Coding convention trong javascript</t>
+  </si>
+  <si>
+    <t>Là một đống quy tắc khi code do team quy định với nhau.</t>
+  </si>
+  <si>
+    <t>Để: rất nhiều cái lợi, ví như</t>
+  </si>
+  <si>
+    <t>Ông này đọc code ông kia chung 1 hệ quy chiếu dễ đọc dễ thấu hiểu nhau hơn</t>
+  </si>
+  <si>
+    <t>Review lại code của mình cũng đơn giản hơn</t>
+  </si>
+  <si>
+    <t>Bảo trị dễ hơn khi ai code cũng trình bày như ai</t>
+  </si>
+  <si>
+    <t>Tùy lựa chọn của team hoặc cá nhân mà tuân thủ theo 1 chuẩn Coding convention nào đó</t>
+  </si>
+  <si>
+    <t>Một số chuẩn được lấy từ google xuống dùng cho javascript như: Google JavaScript Style Guide, Airbnb JavaScript Style, Mozilla Coding style,Jquery Style Guide bla...bla</t>
+  </si>
+  <si>
+    <t>Nhưng nói 1 cách chung chung Coding convention nói chung và mấy cái chuẩn nêu ở trên nói riêng thì:</t>
+  </si>
+  <si>
+    <t>Nó là 1 bộ các quy tắc về:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>ặ</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cú pháp lạc đà</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: thuyDepTrai, conNhaNgheo, hocNgu, myValue, studentCode v…v (nôm na chữ đầu tiếng thứ nhất viết thường từ tiếng thứ 2 viết hoa chữ đầu lên)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cú pháp Pascal: ThuyDepTrai, ConNhaNgheo, HocNgu, MyValue, StudentCode v…v (Viết hoa chừ đầu mỗi tiếng lên)</t>
+  </si>
+  <si>
+    <t>Cú pháp snake_case (cú pháp con rắn): Thuy_Dep_Trai, con_nha_ngheo, HOC_NGU, My_Value, Student_Code v…v (Cái ni cà chớn hơn xíu là cách mỗi tiếng thì dùng dấu gạch dưới nên tùy dùng cho cái chi mà có thể viết hoa thường, )</t>
+  </si>
+  <si>
+    <t>snake_case có thể viết hoa chữ đầu tiên mỗi tiếng hoặc ko viết gì, tuy nhiên đừng viết cùng 1 tiếng mà chữ đầu hoa chữ giữa hoa xong chữ cuối không hoặc 1 quy tắc dị hợm nào đó như kiểu: sTuDENt_cODe, myCLAsS v…v. rất chướng khí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quy tắc đặt tên </t>
+  </si>
+  <si>
+    <t>Quy tắc xuống hàng</t>
+  </si>
+  <si>
+    <t>Ở đây có một số thứ quy tắc đặt ra như</t>
+  </si>
+  <si>
+    <t>Kết thúc 1 xử ký for, while, if else, switch case…</t>
+  </si>
+  <si>
+    <t>Đầu và cuối 1 function</t>
+  </si>
+  <si>
+    <t>Nhiều cấp lồng nhau thì xuống hàng ở mỗi cấp</t>
+  </si>
+  <si>
+    <t>Một dòng code dài hơn n ký tự</t>
+  </si>
+  <si>
+    <t>v…v</t>
+  </si>
+  <si>
+    <t>Quy tắc số lượng</t>
+  </si>
+  <si>
+    <t>Một hàm chỉ không quá n dòng (n ở đây được quy định tùy theo yêu cầu của cá nhân hoặc tổ chức)</t>
+  </si>
+  <si>
+    <t>Một lớp không nên quá n dòng</t>
+  </si>
+  <si>
+    <t>Mỗi một hàm chỉ nên làm 1 nhiệm vụ nhất định. (Ví dụ isNumber thì chỉ dùng để kiểm tra giá trị nhập có phải là số, không nên thêm cờ để kiểm tra giá trị nhập có phải là Email không)</t>
+  </si>
+  <si>
+    <t>Các câu lệnh tối đa lồng nhau n cấp (chỉ nên có 4 vòng lặp for lồng hoặc tối đa if lồng trong if từ 6 lệnh thôi)</t>
+  </si>
+  <si>
+    <t>Mỗi dòng khai báo chỉ nên định danh 1 biến (var a = 1; đừng kiểu var a, b ,c ,d ,e, f = 1;)</t>
+  </si>
+  <si>
+    <t>Quy tắc comment</t>
+  </si>
+  <si>
+    <t>Có thể hạn chế comment code và viết code 1 cách sexy hơn.</t>
+  </si>
+  <si>
+    <t>Tuy nhiên nếu comment hãy ngắn gọn, dễ hiểu đừng làm văn tả cảnh</t>
+  </si>
+  <si>
+    <t>Một số quy tắc có thể do cá nhân tổ chức quy định như comment phải có hastag hoặc có user comment hoặc ngày tháng comment</t>
+  </si>
+  <si>
+    <t>Chỉ comment cho nội dung code xử lý ngay bên dưới (Đừng comment ở dòng 5 mà dòng 10 mới là ý nghĩa của nó)</t>
+  </si>
+  <si>
+    <t>Ngoài ra sẽ có các quy tắc khác đặt thù linh động áp dụng</t>
+  </si>
+  <si>
+    <t>Cách sử dụng: Phần 1</t>
+  </si>
+  <si>
+    <t>Cách sử dụng: Phần 2</t>
+  </si>
+  <si>
+    <t>Toán tử</t>
+  </si>
+  <si>
+    <t>Trong toán học thì như hình trên là đủ còn với javascript thì 1 vùng trời các thứ khác nữa như là:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25^2 (lũy thừa) </t>
+  </si>
+  <si>
+    <t>Toán tử logic &amp;&amp; (và), || (hoặc), ! (phủ định 1 biểu thức logic)</t>
+  </si>
+  <si>
+    <t>Cấu trúc lựa chọn</t>
+  </si>
+  <si>
+    <t>IF … ELSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dùng kiểu </t>
+  </si>
+  <si>
+    <t>Cũng như trên mà viết theo kiểu có vẻ xịn hơn chút</t>
+  </si>
+  <si>
+    <t>SWITCH … CASE</t>
+  </si>
+  <si>
+    <t>day = "holiday"</t>
+  </si>
+  <si>
+    <t>day = "4"</t>
+  </si>
+  <si>
+    <t>Cấu trúc lặp</t>
+  </si>
+  <si>
+    <t>Cơ bản</t>
+  </si>
+  <si>
+    <t>In giá trị từ 1 đến 10</t>
+  </si>
+  <si>
+    <t>Nâng cao</t>
+  </si>
+  <si>
+    <t>forEach</t>
+  </si>
+  <si>
+    <t>for … in</t>
+  </si>
+  <si>
+    <t>for...of</t>
+  </si>
+  <si>
+    <t>Block code trong javascript</t>
+  </si>
+  <si>
+    <t>Block Scoped là phạm vi trong một khối, nghĩa là chỉ hoạt động trong phạm vi được khai báo bởi cặp {}</t>
+  </si>
+  <si>
+    <t>1 và 2 là 2 block scoped (block scoped 1 bao hàm cả block scoped 2)</t>
+  </si>
+  <si>
+    <t>Lặp lồng nhau</t>
+  </si>
+  <si>
+    <t>Lặp FUNCTION</t>
+  </si>
+  <si>
+    <t>Function expressions</t>
+  </si>
+  <si>
+    <t>Có thể khai báo hàm như một biểu thức, tương tự khai báo một biến.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Có thể khai báo một biểu thức hàm mà không cần đặt tên cho hàm.</t>
+  </si>
+  <si>
+    <t>Anonymous functions</t>
+  </si>
+  <si>
+    <t>Khai báo hàm mà không cần tên hàm vi diệu sương sương thôi. Anonymous functions có thể khai báo hàm mà không cần từ khóa là FUNCTION.</t>
+  </si>
+  <si>
+    <t>Lambda functions</t>
+  </si>
+  <si>
+    <t>Lưu ý: Dùng Anonymous functions:</t>
+  </si>
+  <si>
+    <t>phải định nghĩa function trước rồi mới dùng. Không thể gọi thực thi trước rồi mới định nghĩa Function.</t>
+  </si>
+  <si>
+    <t>Có thể thêm tên cho function nhưng không thể gọi thực thi bằng tên function.</t>
+  </si>
+  <si>
+    <t>Viết Anonymous functions bằng cách ngắn gọn hơn</t>
+  </si>
+  <si>
+    <t>Như ví dụ thì dog1 được viết lại từ dog.</t>
+  </si>
+  <si>
+    <t>Generator functions</t>
+  </si>
+  <si>
+    <t>Là một Function được thực thi nhiều lần mà: số lượng biến, giá trị biến, trạng thái các thành phần của hàm..v..v đều được lưu lại sau mỗi phiên sử dụng. Và có thể dùng tiếp tại 1 phiên gọi tiếp theo.</t>
+  </si>
+  <si>
+    <t>Lấy 1 ví dụ như sau:</t>
+  </si>
+  <si>
+    <r>
+      <t>Tại đây có dùng</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> console.log(i) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nên có log ra cho mình xem giá trị tăng của i</t>
+    </r>
+  </si>
+  <si>
+    <t>Nếu chỉ muốn coi thằng i tăng tới 2 thì có thể if ở đây</t>
+  </si>
+  <si>
+    <t>Giờ không dùng if trong vòng lặp mà muốn dừng lại coi thì thử dùng Generator functions, từ cái hàm ở trên sửa lại như bên dưới</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ở đây phải đặt thêm 1 cái biến </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>generator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để kêu cái hàm ra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>generator.next();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Được gọi nó chạy tới hàm loopByN thực thi đến khi gặp yield thì dừng lại rồi giá trị i lúc đầu 0 i++ lên = 1 nhớ ở đó</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>generator.next();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> được gọi lần 2 sau cái chổ "xử lý gì đó khác" dù gọi lại là nó chạy vô hàm loopByN theo suy nghỉ thông thường thì chạy lại từ đầu cái vòng lặp nhưng KHÔNG</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi nảy nhớ là 1 thì giờ i là 1 chớ không phải 0 đâu nhé.</t>
+  </si>
+  <si>
+    <t>Cứ thế cứ gọi next là nó lại bay vô hàm rồi gặp yield là nó lại tạm dừng. Có thể dùng return để kết thúc hàm.</t>
+  </si>
+  <si>
+    <t>Một số function có sẵn trong Javascript</t>
+  </si>
+  <si>
+    <t>Với số</t>
+  </si>
+  <si>
+    <t>toFixed() hoặc toFixed(n) : Làm tròn tới n chữ số thập phân, không có n thì bỏ phần làm tròn</t>
+  </si>
+  <si>
+    <t>abs(num) : Trả về trị tuyệt đối của num</t>
+  </si>
+  <si>
+    <t>Với chữ</t>
+  </si>
+  <si>
+    <t>toLowerCase( ) : Trả về chuỗi ký tự thường</t>
+  </si>
+  <si>
+    <t>toUpperCase() : Trả về chuỗi ký tự in hoa</t>
+  </si>
+  <si>
+    <t>length : trả về độ dài của chuỗi</t>
+  </si>
+  <si>
+    <t>ĐÂY LÀ 1 TRONG SỐ RẤT ÍT HÀM CÓ SẴN  TRONG JAVASCRIPT CÒN RẤT NHIỀU HÀM CÓ SẴN KHÁC NỮA NHÉ!!!</t>
+  </si>
+  <si>
+    <t>Regular expression trong JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biểu thức chính quy (regular expressions ) là các mẫu dùng để tìm kiếm các bộ kí tự được kết hợp với nhau trong các chuỗi kí tự. </t>
+  </si>
+  <si>
+    <t>Có thể dùng để validate form trước khi submit một bộ giá trị nào đó chẳng hạn như mail, số điện thoại, password v…v</t>
+  </si>
+  <si>
+    <t>Như ví dụ dưới đây tạo 1 biểu thức đơn giản để nhận lại 1 mảng giá trị số không liên tiếp của chuỗi.</t>
+  </si>
+  <si>
+    <t>Những quy tắc dùng trong Regular Expression (Regex)</t>
+  </si>
+  <si>
+    <t>Ký tự thường</t>
+  </si>
+  <si>
+    <t>Ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Lặp</t>
+  </si>
+  <si>
+    <t>Khớp nhóm</t>
+  </si>
+  <si>
+    <t>Các phương pháp tạo Object</t>
+  </si>
+  <si>
+    <t>Sử dụng literal notation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object literal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là kiểu cú pháp tạo object sử dụng cặp dấu ngoặc {} và bên trong đó là danh sách các property (thuộc tính) của object.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tổng kết:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Đơn giản nhất để phân biệt khi nào xử dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Dùng while khi không thể dùng for hay ta sẽ dùng while khi điều kiện dừng không xác định (nhưng tránh tạo ra 1 vòng lặp vô hạn).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>với 1 chỉ số index</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>có thể dùng để duyệt giảm cho các yêu cầu duyệt ngược item của đối tượng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for...of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for...in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tường minh và dễ hiểu khi duyệt 1 đối tượng dạng danh sách, nhưng không thể duyệt ngược đối tượng danh sách được</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for...of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>không dùng được để lặp object</t>
+    </r>
+  </si>
+  <si>
+    <t>Ngăn cách giữa các property là dấu phẩy. Mỗi property là một cặp giá trị name - value</t>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>Là một cấu trúc khởi tạo các thuộc tính của mỗi đối tượng.</t>
+  </si>
+  <si>
+    <t>Constructor một function</t>
+  </si>
+  <si>
+    <t>Constructor một class</t>
+  </si>
+  <si>
+    <t>Cách truy cập các properties và methods trong object.</t>
+  </si>
+  <si>
+    <r>
+      <t>- cách add, update và remove các thu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ộ</t>
     </r>
     <r>
       <rPr>
@@ -626,7 +1322,15 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p v</t>
+      <t>c tính trong object.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cách add, update và remove các thuộc tính trong object.</t>
+  </si>
+  <si>
+    <r>
+      <t>- Làm vi</t>
     </r>
     <r>
       <rPr>
@@ -634,7 +1338,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ớ</t>
+      <t>ệ</t>
     </r>
     <r>
       <rPr>
@@ -644,830 +1348,247 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i: while..., do...while, for, forEach, for in, for of,...</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>18/ Workers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">19/ Event Loop </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>15/ Tìm hi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>c v</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u clean code</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>16/ Tìm hi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>i các Objects Built-in mà JavaScipt cung c</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ấ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>u design pattern</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>17/ L</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>p.</t>
+    </r>
+  </si>
+  <si>
+    <t>Làm việc với các Objects Built-in mà JavaScipt cung cấp.</t>
+  </si>
+  <si>
+    <t>Object.create()</t>
+  </si>
+  <si>
+    <t>tạo ra một Object mới và dùng object đó để mở rộng hơn cho một object</t>
+  </si>
+  <si>
+    <t>Object.keys()</t>
+  </si>
+  <si>
+    <t>Lấy danh sách key của object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object.values() </t>
+  </si>
+  <si>
+    <t>Lấy danh sách value của object</t>
+  </si>
+  <si>
+    <t>Object.entries()</t>
+  </si>
+  <si>
+    <t>Trả về danh sách các cặp key value ở dạng mảng</t>
+  </si>
+  <si>
+    <t>Object.assign()</t>
+  </si>
+  <si>
+    <t>Trộn 2 object lại với nhau</t>
+  </si>
+  <si>
+    <t>Object.freeze()</t>
+  </si>
+  <si>
+    <t>Ngăn chặn việc thay đổi thuộc tính của object</t>
+  </si>
+  <si>
+    <t>Object.seal()</t>
+  </si>
+  <si>
+    <t>Cho phép chỉnh sửa giá trị của thuộc tính sẳn có nhưng không có phép thêm - xóa thuộc tính của object</t>
+  </si>
+  <si>
+    <r>
+      <t>- Các thao tác v</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ậ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p trình h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>i Array: truy c</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ướ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ng function</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1/ L</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>p, get, update, remove, copy,..</t>
+    </r>
+  </si>
+  <si>
+    <t>Các thao tác với Array: truy cập, get, update, remove, copy,..</t>
+  </si>
+  <si>
+    <t>Khai báo mảng</t>
+  </si>
+  <si>
+    <t>Hoặc</t>
+  </si>
+  <si>
+    <t>Truy cập mảng</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>remove, copy,.. Tại mục "Làm việc với các methods của Array: push, pop, slice, splice, forEach, map, filter, sort"</t>
+  </si>
+  <si>
+    <t>Làm việc với các methods của Array: push, pop, slice, splice, forEach, map, filter, sort</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>Thêm 1 hoặc nhiều phần tử vào cuối mảng</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>Xóa phần tử cuối cùng của mảng</t>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>Lấy ra 1 số lượng phần tử của mảng trong 1 khoảng chỉ định</t>
+  </si>
+  <si>
+    <t>splice</t>
+  </si>
+  <si>
+    <t>Thay thế một số lượng phần tử của mảng từ một vị trí chỉ định</t>
+  </si>
+  <si>
+    <t>Lặp qua từng giá trị của mảng</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>Tương tự foreach nhưng bên trong thân hàm có giá trị return sẽ có thể trả về giá trị truyền vào</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Dùng để lọc một số phần tử ra khỏi mảng</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>Sắp xếp mảng (mặc định sẽ là so sánh vị trí trong bảng mã unicode )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thực hành các bài tập thao tác với Array: xử lý dãy số, mảng đối tượng, Tìm kiếm, sắp xếp, đệ quy...</t>
+  </si>
+  <si>
+    <r>
+      <t>- Cách s</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ậ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p trình javascript căn b</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> d</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ả</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>ụ</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>n</t>
-    </r>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lưu ý: </t>
-  </si>
-  <si>
-    <t>Ví dụ bên dưới</t>
-  </si>
-  <si>
-    <t>* Có thể khai báo lại và gán lại</t>
-  </si>
-  <si>
-    <t>* Vấn đề hoisting</t>
-  </si>
-  <si>
-    <t>Javascript khi thực hiện biên dịch loạt khai báo biến trước.</t>
-  </si>
-  <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>* Có thể gán lại nhưng KHÔNG được phép khai báo lại</t>
-  </si>
-  <si>
-    <t>Khai báo biến: trong khối {} mức truy cập nội trong khối, ngoài thì coi là biến global có thể truy cập ở mức toàn cục.</t>
-  </si>
-  <si>
-    <t>* VAR tạo thuộc tính toàn cục cho biến và truy cập được thông qua đối tượng WINDOW còn LET thì KHÔNG</t>
-  </si>
-  <si>
-    <t>Hoisting: LET không cho phép dùng biến trước khai báo như VAR</t>
-  </si>
-  <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>Khai báo hằng: trong khối {} mức truy cập nội trong khối, ngoài thì coi là biến global có thể truy cập ở mức toàn cục.</t>
-  </si>
-  <si>
-    <t>* KHÔNG thể gán lại và KHÔNG được phép khai báo lại, 2 biến hằng không cùng 1 khối {} hoặc trong {} và bên ngoài thì có thể đặt tên giống nhau.</t>
-  </si>
-  <si>
-    <t>* Bắt buộc khởi gán giá trị ban đầu.</t>
-  </si>
-  <si>
-    <t>typeof</t>
-  </si>
-  <si>
-    <t>Ví dụ:</t>
-  </si>
-  <si>
-    <t>Trả về 1 chuỗi string cho biết LOẠI JAVASCRIPT của một biết. (Dùng kiểm tra kiểu của 1 giá trị)</t>
-  </si>
-  <si>
-    <t>instanceof</t>
-  </si>
-  <si>
-    <t>Trả về tính đúng của một đối tượng có thuộc về 1 lớp nhất định nào đó không.</t>
-  </si>
-  <si>
-    <t>Coding convention trong javascript</t>
-  </si>
-  <si>
-    <t>Là một đống quy tắc khi code do team quy định với nhau.</t>
-  </si>
-  <si>
-    <t>Để: rất nhiều cái lợi, ví như</t>
-  </si>
-  <si>
-    <t>Ông này đọc code ông kia chung 1 hệ quy chiếu dễ đọc dễ thấu hiểu nhau hơn</t>
-  </si>
-  <si>
-    <t>Review lại code của mình cũng đơn giản hơn</t>
-  </si>
-  <si>
-    <t>Bảo trị dễ hơn khi ai code cũng trình bày như ai</t>
-  </si>
-  <si>
-    <t>Tùy lựa chọn của team hoặc cá nhân mà tuân thủ theo 1 chuẩn Coding convention nào đó</t>
-  </si>
-  <si>
-    <t>Một số chuẩn được lấy từ google xuống dùng cho javascript như: Google JavaScript Style Guide, Airbnb JavaScript Style, Mozilla Coding style,Jquery Style Guide bla...bla</t>
-  </si>
-  <si>
-    <t>Nhưng nói 1 cách chung chung Coding convention nói chung và mấy cái chuẩn nêu ở trên nói riêng thì:</t>
-  </si>
-  <si>
-    <t>Nó là 1 bộ các quy tắc về:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>ng l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cú pháp lạc đà</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: thuyDepTrai, conNhaNgheo, hocNgu, myValue, studentCode v…v (nôm na chữ đầu tiếng thứ nhất viết thường từ tiếng thứ 2 viết hoa chữ đầu lên)</t>
-    </r>
-  </si>
-  <si>
-    <t>Cú pháp Pascal: ThuyDepTrai, ConNhaNgheo, HocNgu, MyValue, StudentCode v…v (Viết hoa chừ đầu mỗi tiếng lên)</t>
-  </si>
-  <si>
-    <t>Cú pháp snake_case (cú pháp con rắn): Thuy_Dep_Trai, con_nha_ngheo, HOC_NGU, My_Value, Student_Code v…v (Cái ni cà chớn hơn xíu là cách mỗi tiếng thì dùng dấu gạch dưới nên tùy dùng cho cái chi mà có thể viết hoa thường, )</t>
-  </si>
-  <si>
-    <t>snake_case có thể viết hoa chữ đầu tiên mỗi tiếng hoặc ko viết gì, tuy nhiên đừng viết cùng 1 tiếng mà chữ đầu hoa chữ giữa hoa xong chữ cuối không hoặc 1 quy tắc dị hợm nào đó như kiểu: sTuDENt_cODe, myCLAsS v…v. rất chướng khí.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quy tắc đặt tên </t>
-  </si>
-  <si>
-    <t>Quy tắc xuống hàng</t>
-  </si>
-  <si>
-    <t>Ở đây có một số thứ quy tắc đặt ra như</t>
-  </si>
-  <si>
-    <t>Kết thúc 1 xử ký for, while, if else, switch case…</t>
-  </si>
-  <si>
-    <t>Đầu và cuối 1 function</t>
-  </si>
-  <si>
-    <t>Nhiều cấp lồng nhau thì xuống hàng ở mỗi cấp</t>
-  </si>
-  <si>
-    <t>Một dòng code dài hơn n ký tự</t>
-  </si>
-  <si>
-    <t>v…v</t>
-  </si>
-  <si>
-    <t>Quy tắc số lượng</t>
-  </si>
-  <si>
-    <t>Một hàm chỉ không quá n dòng (n ở đây được quy định tùy theo yêu cầu của cá nhân hoặc tổ chức)</t>
-  </si>
-  <si>
-    <t>Một lớp không nên quá n dòng</t>
-  </si>
-  <si>
-    <t>Mỗi một hàm chỉ nên làm 1 nhiệm vụ nhất định. (Ví dụ isNumber thì chỉ dùng để kiểm tra giá trị nhập có phải là số, không nên thêm cờ để kiểm tra giá trị nhập có phải là Email không)</t>
-  </si>
-  <si>
-    <t>Các câu lệnh tối đa lồng nhau n cấp (chỉ nên có 4 vòng lặp for lồng hoặc tối đa if lồng trong if từ 6 lệnh thôi)</t>
-  </si>
-  <si>
-    <t>Mỗi dòng khai báo chỉ nên định danh 1 biến (var a = 1; đừng kiểu var a, b ,c ,d ,e, f = 1;)</t>
-  </si>
-  <si>
-    <t>Quy tắc comment</t>
-  </si>
-  <si>
-    <t>Có thể hạn chế comment code và viết code 1 cách sexy hơn.</t>
-  </si>
-  <si>
-    <t>Tuy nhiên nếu comment hãy ngắn gọn, dễ hiểu đừng làm văn tả cảnh</t>
-  </si>
-  <si>
-    <t>Một số quy tắc có thể do cá nhân tổ chức quy định như comment phải có hastag hoặc có user comment hoặc ngày tháng comment</t>
-  </si>
-  <si>
-    <t>Chỉ comment cho nội dung code xử lý ngay bên dưới (Đừng comment ở dòng 5 mà dòng 10 mới là ý nghĩa của nó)</t>
-  </si>
-  <si>
-    <t>Ngoài ra sẽ có các quy tắc khác đặt thù linh động áp dụng</t>
-  </si>
-  <si>
-    <t>Cách sử dụng: Phần 1</t>
-  </si>
-  <si>
-    <t>Cách sử dụng: Phần 2</t>
-  </si>
-  <si>
-    <t>Toán tử</t>
-  </si>
-  <si>
-    <t>Trong toán học thì như hình trên là đủ còn với javascript thì 1 vùng trời các thứ khác nữa như là:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25^2 (lũy thừa) </t>
-  </si>
-  <si>
-    <t>Toán tử logic &amp;&amp; (và), || (hoặc), ! (phủ định 1 biểu thức logic)</t>
-  </si>
-  <si>
-    <t>Cấu trúc lựa chọn</t>
-  </si>
-  <si>
-    <t>IF … ELSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dùng kiểu </t>
-  </si>
-  <si>
-    <t>Cũng như trên mà viết theo kiểu có vẻ xịn hơn chút</t>
-  </si>
-  <si>
-    <t>SWITCH … CASE</t>
-  </si>
-  <si>
-    <t>day = "holiday"</t>
-  </si>
-  <si>
-    <t>day = "4"</t>
-  </si>
-  <si>
-    <t>Cấu trúc lặp</t>
-  </si>
-  <si>
-    <t>Cơ bản</t>
-  </si>
-  <si>
-    <t>In giá trị từ 1 đến 10</t>
-  </si>
-  <si>
-    <t>Nâng cao</t>
-  </si>
-  <si>
-    <t>forEach</t>
-  </si>
-  <si>
-    <t>for … in</t>
-  </si>
-  <si>
-    <t>for...of</t>
-  </si>
-  <si>
-    <t>Block code trong javascript</t>
-  </si>
-  <si>
-    <t>Block Scoped là phạm vi trong một khối, nghĩa là chỉ hoạt động trong phạm vi được khai báo bởi cặp {}</t>
-  </si>
-  <si>
-    <t>1 và 2 là 2 block scoped (block scoped 1 bao hàm cả block scoped 2)</t>
-  </si>
-  <si>
-    <t>Lặp lồng nhau</t>
-  </si>
-  <si>
-    <t>Lặp FUNCTION</t>
-  </si>
-  <si>
-    <t>Function expressions</t>
-  </si>
-  <si>
-    <t>Có thể khai báo hàm như một biểu thức, tương tự khai báo một biến.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Có thể khai báo một biểu thức hàm mà không cần đặt tên cho hàm.</t>
-  </si>
-  <si>
-    <t>Anonymous functions</t>
-  </si>
-  <si>
-    <t>Khai báo hàm mà không cần tên hàm vi diệu sương sương thôi. Anonymous functions có thể khai báo hàm mà không cần từ khóa là FUNCTION.</t>
-  </si>
-  <si>
-    <t>Lambda functions</t>
-  </si>
-  <si>
-    <t>Lưu ý: Dùng Anonymous functions:</t>
-  </si>
-  <si>
-    <t>phải định nghĩa function trước rồi mới dùng. Không thể gọi thực thi trước rồi mới định nghĩa Function.</t>
-  </si>
-  <si>
-    <t>Có thể thêm tên cho function nhưng không thể gọi thực thi bằng tên function.</t>
-  </si>
-  <si>
-    <t>Viết Anonymous functions bằng cách ngắn gọn hơn</t>
-  </si>
-  <si>
-    <t>Như ví dụ thì dog1 được viết lại từ dog.</t>
-  </si>
-  <si>
-    <t>Generator functions</t>
-  </si>
-  <si>
-    <t>Là một Function được thực thi nhiều lần mà: số lượng biến, giá trị biến, trạng thái các thành phần của hàm..v..v đều được lưu lại sau mỗi phiên sử dụng. Và có thể dùng tiếp tại 1 phiên gọi tiếp theo.</t>
-  </si>
-  <si>
-    <t>Lấy 1 ví dụ như sau:</t>
-  </si>
-  <si>
-    <r>
-      <t>Tại đây có dùng</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> console.log(i) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nên có log ra cho mình xem giá trị tăng của i</t>
-    </r>
-  </si>
-  <si>
-    <t>Nếu chỉ muốn coi thằng i tăng tới 2 thì có thể if ở đây</t>
-  </si>
-  <si>
-    <t>Giờ không dùng if trong vòng lặp mà muốn dừng lại coi thì thử dùng Generator functions, từ cái hàm ở trên sửa lại như bên dưới</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ở đây phải đặt thêm 1 cái biến </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>generator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> để kêu cái hàm ra</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>generator.next();</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Được gọi nó chạy tới hàm loopByN thực thi đến khi gặp yield thì dừng lại rồi giá trị i lúc đầu 0 i++ lên = 1 nhớ ở đó</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>generator.next();</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> được gọi lần 2 sau cái chổ "xử lý gì đó khác" dù gọi lại là nó chạy vô hàm loopByN theo suy nghỉ thông thường thì chạy lại từ đầu cái vòng lặp nhưng KHÔNG</t>
-    </r>
-  </si>
-  <si>
-    <t>Khi nảy nhớ là 1 thì giờ i là 1 chớ không phải 0 đâu nhé.</t>
-  </si>
-  <si>
-    <t>Cứ thế cứ gọi next là nó lại bay vô hàm rồi gặp yield là nó lại tạm dừng. Có thể dùng return để kết thúc hàm.</t>
-  </si>
-  <si>
-    <t>Một số function có sẵn trong Javascript</t>
-  </si>
-  <si>
-    <t>Với số</t>
-  </si>
-  <si>
-    <t>toFixed() hoặc toFixed(n) : Làm tròn tới n chữ số thập phân, không có n thì bỏ phần làm tròn</t>
-  </si>
-  <si>
-    <t>abs(num) : Trả về trị tuyệt đối của num</t>
-  </si>
-  <si>
-    <t>Với chữ</t>
-  </si>
-  <si>
-    <t>toLowerCase( ) : Trả về chuỗi ký tự thường</t>
-  </si>
-  <si>
-    <t>toUpperCase() : Trả về chuỗi ký tự in hoa</t>
-  </si>
-  <si>
-    <t>length : trả về độ dài của chuỗi</t>
-  </si>
-  <si>
-    <t>ĐÂY LÀ 1 TRONG SỐ RẤT ÍT HÀM CÓ SẴN  TRONG JAVASCRIPT CÒN RẤT NHIỀU HÀM CÓ SẴN KHÁC NỮA NHÉ!!!</t>
-  </si>
-  <si>
-    <t>Regular expression trong JavaScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biểu thức chính quy (regular expressions ) là các mẫu dùng để tìm kiếm các bộ kí tự được kết hợp với nhau trong các chuỗi kí tự. </t>
-  </si>
-  <si>
-    <t>Có thể dùng để validate form trước khi submit một bộ giá trị nào đó chẳng hạn như mail, số điện thoại, password v…v</t>
-  </si>
-  <si>
-    <t>Như ví dụ dưới đây tạo 1 biểu thức đơn giản để nhận lại 1 mảng giá trị số không liên tiếp của chuỗi.</t>
-  </si>
-  <si>
-    <t>Những quy tắc dùng trong Regular Expression (Regex)</t>
-  </si>
-  <si>
-    <t>Ký tự thường</t>
-  </si>
-  <si>
-    <t>Ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Lặp</t>
-  </si>
-  <si>
-    <t>Khớp nhóm</t>
-  </si>
-  <si>
-    <t>Các phương pháp tạo Object</t>
-  </si>
-  <si>
-    <t>Sử dụng literal notation</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Object literal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> là kiểu cú pháp tạo object sử dụng cặp dấu ngoặc {} và bên trong đó là danh sách các property (thuộc tính) của object.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tổng kết:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Đơn giản nhất để phân biệt khi nào xử dụng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> và </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Dùng while khi không thể dùng for hay ta sẽ dùng while khi điều kiện dừng không xác định (nhưng tránh tạo ra 1 vòng lặp vô hạn).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>với 1 chỉ số index</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>có thể dùng để duyệt giảm cho các yêu cầu duyệt ngược item của đối tượng</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for...of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> và </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for...in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tường minh và dễ hiểu khi duyệt 1 đối tượng dạng danh sách, nhưng không thể duyệt ngược đối tượng danh sách được</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">for...of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>không dùng được để lặp object</t>
-    </r>
-  </si>
-  <si>
-    <t>Ngăn cách giữa các property là dấu phẩy. Mỗi property là một cặp giá trị name - value</t>
-  </si>
-  <si>
-    <t>constructor</t>
-  </si>
-  <si>
-    <t>Là một cấu trúc khởi tạo các thuộc tính của mỗi đối tượng.</t>
-  </si>
-  <si>
-    <t>Constructor một function</t>
-  </si>
-  <si>
-    <t>Constructor một class</t>
-  </si>
-  <si>
-    <t>Cách truy cập các properties và methods trong object.</t>
-  </si>
-  <si>
-    <r>
-      <t>- cách add, update và remove các thu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ộ</t>
+      </rPr>
+      <t>ớ</t>
     </r>
     <r>
       <rPr>
@@ -1477,23 +1598,463 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>c tính trong object.</t>
-    </r>
-  </si>
-  <si>
-    <t>Cách add, update và remove các thuộc tính trong object.</t>
-  </si>
-  <si>
-    <r>
-      <t>- Làm vi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t>p Array: Array.prototype.slice(), Array.from()…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>ệ</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Viết một hàm filterRange trả về mảng đã loại bỏ tất cả các giá trị ngoại trừ những giá trị nằm giữa giá trị from và to.</t>
+    </r>
+  </si>
+  <si>
+    <t>Xử lý dãy số</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho mảng số nguyên dương tăng (chưa được sắp xếp) khuyết 1 phần tử, tìm phần tử bị thiếu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho mảng số nguyên tính tổng các số nguyên là số chẳn.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mảng đối tượng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho mảng đối tượng học sinh lấy ra danh sách tên học sinh có tuổi lớn hơn k.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cho mảng đối tượng nhân viên tính lương trung bình của cả công ty.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm kiếm toàn bộ mã thuộc phòng ban là giám đốc GD.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm kiếm toàn bộ số nguyên tố trong mảng số nguyên.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm kiếm toàn bộ nhân viên có lương từ 10 triệu trở lên.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sắp xếp</t>
+  </si>
+  <si>
+    <t>Đệ quy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sắp xếp dãy số nguyên tăng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sắp xếp dãy số nguyên giảm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Sắp xếp danh sách nhân viên theo thứ tự tăng về tuổi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Xây dựng chức năng đếm ngược chúc mừng năm mới.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bài 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm số fibonacci thứ N.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cách sử dụng lớp Array: Array.prototype.slice(), Array.from()…</t>
+  </si>
+  <si>
+    <t>Array.prototype.slice()</t>
+  </si>
+  <si>
+    <t>Dùng để lấy số lượng phần tử của mảng từ vị trí start đến end (Tuy nhiên sẽ không lấy giá trị ở vị trí end)</t>
+  </si>
+  <si>
+    <t>Array.from()</t>
+  </si>
+  <si>
+    <t>Có thể tạo mảng từ một dữ liệu khác</t>
+  </si>
+  <si>
+    <t>Array.includes()</t>
+  </si>
+  <si>
+    <t>Kiểm tra sự tồn tại của item nằm trong mảng</t>
+  </si>
+  <si>
+    <t>Array.some()</t>
+  </si>
+  <si>
+    <t>Kiểm tra array có bất kỳ phần tử nào thỏa mãn 1 điều kiện nào đó</t>
+  </si>
+  <si>
+    <t>Array.every()</t>
+  </si>
+  <si>
+    <t>Kiểm tra toàn bộ phần tử array có thỏa mãn 1 điều kiện nào đó</t>
+  </si>
+  <si>
+    <t>Global scope</t>
+  </si>
+  <si>
+    <t>Các biến khai báo ngoài Function, biến đó được dùng chung cho các Function, có thể thay đổi giá trị của biến trong các Function.</t>
+  </si>
+  <si>
+    <t>Scope giới hạn của các biến khai báo với let, const</t>
+  </si>
+  <si>
+    <t>Ở global scope từ khóa var tạo ra thuộc tính mới cho global object (this), còn let thì không.</t>
+  </si>
+  <si>
+    <t>Các biến được khai báo var là function scope, nếu biến được khai báo trong một block scope thì biến đó cũng có thể truy cập được  bên ngoài.</t>
+  </si>
+  <si>
+    <t>Các biến được khai báo let là block cope, nếu biến được khai báo trong một block scope thì biến đó không thể truy cập được  bên ngoài.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Const tương tự let nhưng không được phép thay đổi giá trị </t>
+  </si>
+  <si>
+    <t>Scope của variables trong functions</t>
+  </si>
+  <si>
+    <t>Các biến khai báo var, let, const bên trong function scope thì không thể truy cập được bên ngoài function</t>
+  </si>
+  <si>
+    <t>Scope của variables trong block code</t>
+  </si>
+  <si>
+    <t>Đối với var sẽ chỉ giới hạn ở trong function scope nên nếu dùng var khai báo trong một block scope thì có thể truy cập bên ngoài được.</t>
+  </si>
+  <si>
+    <t>Tuy nhiên sử dụng let và const thì chỉ có thể truy cập được ở mức block scope.</t>
+  </si>
+  <si>
+    <t>Scope của variables trong Closure functions</t>
+  </si>
+  <si>
+    <t>Biến số nằm trong hàm có thể truy cập được từ một hàm nằm bên trong hàm đó</t>
+  </si>
+  <si>
+    <t>Tìm hiểu các cách binding(liên kết) giữa "this" với methods như: Implicit binding, Explicit binding, "new" binding, Lexical binding, default/window binding</t>
+  </si>
+  <si>
+    <t>Implicit binding</t>
+  </si>
+  <si>
+    <t>Ở ví dụ bên dưới this đang tham chiếu đến name của user có thể thiểu this lúc này sẽ là đối tượng user. This.name sẽ tương tự user.name</t>
+  </si>
+  <si>
+    <t>Explicit binding</t>
+  </si>
+  <si>
+    <t>Như ví dụ 2 của Implicit binding ta có thể lấy name của đối tượng user với this nhờ việc truyền 1 object vào getName.</t>
+  </si>
+  <si>
+    <t>Với Explicit binding sử dụng call() ta không cần truyền 1 object cho function vẫn gán được this là user, như bên dưới.</t>
+  </si>
+  <si>
+    <t>Ngoài ra để truyền các đối số ta có thể gọi bằng 3 cách call(), bind() và apply()</t>
+  </si>
+  <si>
+    <t>Cũng ở ví dụ trên lúc này cần truyền thêm tính năng mới của user ta có thể thực hiện như sau:</t>
+  </si>
+  <si>
+    <t>Thay vì dùng call ta cũng có thể dùng apply để đơn giản việc truyền đối số hơn</t>
+  </si>
+  <si>
+    <t>Bind sẽ giống Call tuy nhiên nó không gọi trực tiếp mà sẽ trả về 1 hàm mới</t>
+  </si>
+  <si>
+    <t>New Binding</t>
+  </si>
+  <si>
+    <t>Để tạo 1 đối tượng từ một constructor fuction ta dùng new như sau</t>
+  </si>
+  <si>
+    <t>default binding</t>
+  </si>
+  <si>
+    <t>Khi ở trong hàm mà không tìm được bất kỳ 1 object có thể map với name thì this đang trỏ tới 1 global object</t>
+  </si>
+  <si>
+    <t>Lexical scope</t>
+  </si>
+  <si>
+    <t>Khi khai báo biến ở global (không nằm trong bất kỳ hàm nào), chúng ta có một Global lexical scope.</t>
+  </si>
+  <si>
+    <t>Có thể hiểu là phạm vi sống của biến có thể truy cập được</t>
+  </si>
+  <si>
+    <t>Đối với hàm lexical scope xác định scope của một biến để nó chỉ có thể được gọi / tham khảo từ bên trong khối mã mà nó được định nghĩa.</t>
+  </si>
+  <si>
+    <r>
+      <t>- cách s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ử</t>
     </r>
     <r>
       <rPr>
@@ -1503,7 +2064,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>c v</t>
+      <t xml:space="preserve"> d</t>
     </r>
     <r>
       <rPr>
@@ -1511,7 +2072,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ớ</t>
+      <t>ụ</t>
     </r>
     <r>
       <rPr>
@@ -1521,7 +2082,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i các Objects Built-in mà JavaScipt cung c</t>
+      <t>ng ph</t>
     </r>
     <r>
       <rPr>
@@ -1529,7 +2090,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ấ</t>
+      <t>ươ</t>
     </r>
     <r>
       <rPr>
@@ -1539,57 +2100,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p.</t>
-    </r>
-  </si>
-  <si>
-    <t>Làm việc với các Objects Built-in mà JavaScipt cung cấp.</t>
-  </si>
-  <si>
-    <t>Object.create()</t>
-  </si>
-  <si>
-    <t>tạo ra một Object mới và dùng object đó để mở rộng hơn cho một object</t>
-  </si>
-  <si>
-    <t>Object.keys()</t>
-  </si>
-  <si>
-    <t>Lấy danh sách key của object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object.values() </t>
-  </si>
-  <si>
-    <t>Lấy danh sách value của object</t>
-  </si>
-  <si>
-    <t>Object.entries()</t>
-  </si>
-  <si>
-    <t>Trả về danh sách các cặp key value ở dạng mảng</t>
-  </si>
-  <si>
-    <t>Object.assign()</t>
-  </si>
-  <si>
-    <t>Trộn 2 object lại với nhau</t>
-  </si>
-  <si>
-    <t>Object.freeze()</t>
-  </si>
-  <si>
-    <t>Ngăn chặn việc thay đổi thuộc tính của object</t>
-  </si>
-  <si>
-    <t>Object.seal()</t>
-  </si>
-  <si>
-    <t>Cho phép chỉnh sửa giá trị của thuộc tính sẳn có nhưng không có phép thêm - xóa thuộc tính của object</t>
-  </si>
-  <si>
-    <r>
-      <t>- Các thao tác v</t>
+      <t>ng th</t>
     </r>
     <r>
       <rPr>
@@ -1597,7 +2108,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ớ</t>
+      <t>ứ</t>
     </r>
     <r>
       <rPr>
@@ -1607,7 +2118,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>i Array: truy c</t>
+      <t>c: call, apply, bind v</t>
     </r>
     <r>
       <rPr>
@@ -1615,7 +2126,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ậ</t>
+      <t>ớ</t>
     </r>
     <r>
       <rPr>
@@ -1625,81 +2136,15 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p, get, update, remove, copy,..</t>
-    </r>
-  </si>
-  <si>
-    <t>Các thao tác với Array: truy cập, get, update, remove, copy,..</t>
-  </si>
-  <si>
-    <t>Khai báo mảng</t>
-  </si>
-  <si>
-    <t>Hoặc</t>
-  </si>
-  <si>
-    <t>Truy cập mảng</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>remove, copy,.. Tại mục "Làm việc với các methods của Array: push, pop, slice, splice, forEach, map, filter, sort"</t>
-  </si>
-  <si>
-    <t>Làm việc với các methods của Array: push, pop, slice, splice, forEach, map, filter, sort</t>
-  </si>
-  <si>
-    <t>push</t>
-  </si>
-  <si>
-    <t>Thêm 1 hoặc nhiều phần tử vào cuối mảng</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>Xóa phần tử cuối cùng của mảng</t>
-  </si>
-  <si>
-    <t>slice</t>
-  </si>
-  <si>
-    <t>Lấy ra 1 số lượng phần tử của mảng trong 1 khoảng chỉ định</t>
-  </si>
-  <si>
-    <t>splice</t>
-  </si>
-  <si>
-    <t>Thay thế một số lượng phần tử của mảng từ một vị trí chỉ định</t>
-  </si>
-  <si>
-    <t>Lặp qua từng giá trị của mảng</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>Tương tự foreach nhưng bên trong thân hàm có giá trị return sẽ có thể trả về giá trị truyền vào</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Dùng để lọc một số phần tử ra khỏi mảng</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>Sắp xếp mảng (mặc định sẽ là so sánh vị trí trong bảng mã unicode )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Thực hành các bài tập thao tác với Array: xử lý dãy số, mảng đối tượng, Tìm kiếm, sắp xếp, đệ quy...</t>
-  </si>
-  <si>
-    <r>
-      <t>- Cách s</t>
+      <t>i functions</t>
+    </r>
+  </si>
+  <si>
+    <t>Cách sử dụng phương thức: call, apply, bind với functions</t>
+  </si>
+  <si>
+    <r>
+      <t>- S</t>
     </r>
     <r>
       <rPr>
@@ -1707,7 +2152,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ử</t>
+      <t>ự</t>
     </r>
     <r>
       <rPr>
@@ -1717,7 +2162,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> d</t>
+      <t xml:space="preserve"> khác nhau c</t>
     </r>
     <r>
       <rPr>
@@ -1725,7 +2170,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>ụ</t>
+      <t>ủ</t>
     </r>
     <r>
       <rPr>
@@ -1735,7 +2180,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ng l</t>
+      <t>a "this" v</t>
     </r>
     <r>
       <rPr>
@@ -1753,403 +2198,86 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>p Array: Array.prototype.slice(), Array.from()…</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Viết một hàm filterRange trả về mảng đã loại bỏ tất cả các giá trị ngoại trừ những giá trị nằm giữa giá trị from và to.</t>
-    </r>
-  </si>
-  <si>
-    <t>Xử lý dãy số</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Cho mảng số nguyên dương tăng (chưa được sắp xếp) khuyết 1 phần tử, tìm phần tử bị thiếu.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Cho mảng số nguyên tính tổng các số nguyên là số chẳn.</t>
-    </r>
-  </si>
-  <si>
-    <t>Mảng đối tượng</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Cho mảng đối tượng học sinh lấy ra danh sách tên học sinh có tuổi lớn hơn k.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Cho mảng đối tượng nhân viên tính lương trung bình của cả công ty.</t>
-    </r>
-  </si>
-  <si>
-    <t>Tìm kiếm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Tìm kiếm toàn bộ mã thuộc phòng ban là giám đốc GD.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Tìm kiếm toàn bộ số nguyên tố trong mảng số nguyên.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Tìm kiếm toàn bộ nhân viên có lương từ 10 triệu trở lên.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sắp xếp</t>
-  </si>
-  <si>
-    <t>Đệ quy</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Sắp xếp dãy số nguyên tăng</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Sắp xếp dãy số nguyên giảm</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Sắp xếp danh sách nhân viên theo thứ tự tăng về tuổi</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Xây dựng chức năng đếm ngược chúc mừng năm mới.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bài 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Tìm số fibonacci thứ N.</t>
-    </r>
-  </si>
-  <si>
-    <t>Cách sử dụng lớp Array: Array.prototype.slice(), Array.from()…</t>
-  </si>
-  <si>
-    <t>Array.prototype.slice()</t>
-  </si>
-  <si>
-    <t>Dùng để lấy số lượng phần tử của mảng từ vị trí start đến end (Tuy nhiên sẽ không lấy giá trị ở vị trí end)</t>
-  </si>
-  <si>
-    <t>Array.from()</t>
-  </si>
-  <si>
-    <t>Có thể tạo mảng từ một dữ liệu khác</t>
-  </si>
-  <si>
-    <t>Array.includes()</t>
-  </si>
-  <si>
-    <t>Kiểm tra sự tồn tại của item nằm trong mảng</t>
-  </si>
-  <si>
-    <t>Array.some()</t>
-  </si>
-  <si>
-    <t>Kiểm tra array có bất kỳ phần tử nào thỏa mãn 1 điều kiện nào đó</t>
-  </si>
-  <si>
-    <t>Array.every()</t>
-  </si>
-  <si>
-    <t>Kiểm tra toàn bộ phần tử array có thỏa mãn 1 điều kiện nào đó</t>
-  </si>
-  <si>
-    <t>Global scope</t>
-  </si>
-  <si>
-    <t>Các biến khai báo ngoài Function, biến đó được dùng chung cho các Function, có thể thay đổi giá trị của biến trong các Function.</t>
-  </si>
-  <si>
-    <t>Scope giới hạn của các biến khai báo với let, const</t>
-  </si>
-  <si>
-    <t>Ở global scope từ khóa var tạo ra thuộc tính mới cho global object (this), còn let thì không.</t>
-  </si>
-  <si>
-    <t>Các biến được khai báo var là function scope, nếu biến được khai báo trong một block scope thì biến đó cũng có thể truy cập được  bên ngoài.</t>
-  </si>
-  <si>
-    <t>Các biến được khai báo let là block cope, nếu biến được khai báo trong một block scope thì biến đó không thể truy cập được  bên ngoài.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Const tương tự let nhưng không được phép thay đổi giá trị </t>
-  </si>
-  <si>
-    <t>Scope của variables trong functions</t>
-  </si>
-  <si>
-    <t>Các biến khai báo var, let, const bên trong function scope thì không thể truy cập được bên ngoài function</t>
-  </si>
-  <si>
-    <t>Scope của variables trong block code</t>
-  </si>
-  <si>
-    <t>Đối với var sẽ chỉ giới hạn ở trong function scope nên nếu dùng var khai báo trong một block scope thì có thể truy cập bên ngoài được.</t>
-  </si>
-  <si>
-    <t>Tuy nhiên sử dụng let và const thì chỉ có thể truy cập được ở mức block scope.</t>
-  </si>
-  <si>
-    <t>Scope của variables trong Closure functions</t>
-  </si>
-  <si>
-    <t>Biến số nằm trong hàm có thể truy cập được từ một hàm nằm bên trong hàm đó</t>
-  </si>
-  <si>
-    <t>Tìm hiểu các cách binding(liên kết) giữa "this" với methods như: Implicit binding, Explicit binding, "new" binding, Lexical binding, default/window binding</t>
-  </si>
-  <si>
-    <t>Implicit binding</t>
+      <t>i function, expression function và arrow function.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sự khác nhau của "this" với function, expression function và arrow function.</t>
+  </si>
+  <si>
+    <t>Sự khác nhau của "this" với function</t>
+  </si>
+  <si>
+    <t>Với javascrip thì 1 hàm sẽ được hiểu là 1 đối tượng và this sẽ là thuộc tính của đối tượng đó.</t>
+  </si>
+  <si>
+    <t>Sự khác nhau của expression function và arrow function</t>
+  </si>
+  <si>
+    <t>Arrow function có cú pháp ngắn gọn hơn expression function</t>
+  </si>
+  <si>
+    <t>Arrow function thì không có bind nên không định nghĩa lại this, nên this sẽ ứng với ngữ cảnh gần nhất của nó.</t>
+  </si>
+  <si>
+    <t>Làm việc với cấu trúc Array nâng cao</t>
+  </si>
+  <si>
+    <t>Mảng đa chiều</t>
+  </si>
+  <si>
+    <t>Giả định ta muốn cấu trúc 1 mảng có thể lưu được ma trận bên dưới</t>
+  </si>
+  <si>
+    <t>Hoàn toàn có thể dùng mảng 2 chiều với Javascript</t>
+  </si>
+  <si>
+    <t>Để truy xuất 1 phần tử của mảng chỉ cần chỉ đúng vị trí của phần tử</t>
+  </si>
+  <si>
+    <t>tenmang[vin trí dòng][vị trí cột]</t>
+  </si>
+  <si>
+    <t>Có thể hiển thị ma trận trên bằng cách bên dưới</t>
+  </si>
+  <si>
+    <t>Lists</t>
+  </si>
+  <si>
+    <t>Có thể dùng array như một lists</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Cơ chế Stack là cơ chế được hiểu phần tử cuối cùng được chèn vào sẽ là phần tử được lấy ra đầu tiên.</t>
+  </si>
+  <si>
+    <t>Triển khai 1 mẫu nhỏ với Javascript</t>
+  </si>
+  <si>
+    <t>pop(): Lấy ra item đỉnh stack</t>
+  </si>
+  <si>
+    <t>push(item): Thêm item vào đỉnh stack</t>
+  </si>
+  <si>
+    <t>Item Book3 được thêm vào cuối cùng nên khi pop nó sẽ được lấy ra đầu tiên</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Ngược lại với Stack thì Queue sẽ có cơ chế phần tử thêm vào đầu tiên thì được lấy ra đầu tiên</t>
+  </si>
+  <si>
+    <t>shift(): Lấy ra item cuối queue</t>
+  </si>
+  <si>
+    <t>Item Book1 được thêm vào đầu tiên nên khi shift nó sẽ được lấy ra đầu tiên</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
   </si>
 </sst>
 </file>
@@ -5981,6 +6109,586 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>543511</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1019175"/>
+          <a:ext cx="4201111" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257977</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133608</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2476500"/>
+          <a:ext cx="5744377" cy="1848108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>486609</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5715000"/>
+          <a:ext cx="5973009" cy="1467055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200989</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8001000"/>
+          <a:ext cx="6906589" cy="1886213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200989</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10477500"/>
+          <a:ext cx="6906589" cy="1724266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200989</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>28871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12763500"/>
+          <a:ext cx="6906589" cy="2124371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>372463</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>171633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16002000"/>
+          <a:ext cx="7078063" cy="1314633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>86503</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1343025"/>
+          <a:ext cx="5572903" cy="943107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>267078</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="990600"/>
+          <a:ext cx="2705478" cy="1924319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257551</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3429000"/>
+          <a:ext cx="2695951" cy="1009791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5524500"/>
+          <a:ext cx="5191850" cy="2257740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219446</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>181505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10477500"/>
+          <a:ext cx="2657846" cy="3801005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181337</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>9650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076575" y="11306175"/>
+          <a:ext cx="2591162" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200393</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>76742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16192500"/>
+          <a:ext cx="2638793" cy="3886742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19394</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>123945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="17364075"/>
+          <a:ext cx="2467319" cy="857370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6247,10 +6955,10 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -6322,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="10"/>
@@ -6418,7 +7126,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="10"/>
@@ -6626,7 +7334,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="10"/>
@@ -6642,7 +7350,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="10"/>
@@ -6674,7 +7382,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="10"/>
@@ -6722,7 +7430,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="10"/>
@@ -6866,7 +7574,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="10"/>
@@ -6882,7 +7590,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>72</v>
+        <v>327</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="10"/>
@@ -7250,7 +7958,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="10"/>
@@ -7266,7 +7974,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="10"/>
@@ -7282,7 +7990,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="10"/>
@@ -7298,7 +8006,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="10"/>
@@ -7314,7 +8022,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="10"/>
@@ -7330,7 +8038,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="10"/>
@@ -7346,7 +8054,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="10"/>
@@ -7362,7 +8070,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="10"/>
@@ -7378,7 +8086,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="10"/>
@@ -7394,7 +8102,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="10"/>
@@ -7410,7 +8118,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="10"/>
@@ -7426,7 +8134,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="10"/>
@@ -7442,7 +8150,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="10"/>
@@ -7458,7 +8166,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="10"/>
@@ -7704,134 +8412,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -7839,194 +8547,194 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="B90" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="B91" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="C93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="B96" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="C97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="C98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="C99" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="C100" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="C101" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="B104" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="B114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119" spans="1:3">
       <c r="B119" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -8046,133 +8754,133 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="17"/>
     </row>
     <row r="17" spans="1:6">
       <c r="F17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="F20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="C45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="G85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B94" s="16"/>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C105" s="17"/>
     </row>
@@ -8193,130 +8901,130 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="J24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="B73" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="K76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="K77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="2:14">
       <c r="B84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="2:14">
       <c r="N87" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="2:14">
       <c r="N88" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="2:14">
       <c r="N89" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="2:14">
       <c r="N90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="2:14">
       <c r="N91" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
@@ -8324,53 +9032,53 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="B160" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="B166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="B172" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="B176" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="B180" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="23"/>
       <c r="B187" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="20"/>
@@ -8378,42 +9086,42 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -8433,7 +9141,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -8447,45 +9155,45 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="C16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -8495,7 +9203,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -8505,7 +9213,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -8515,46 +9223,46 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B95" s="26"/>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B106" s="26"/>
     </row>
     <row r="107" spans="1:2">
       <c r="B107" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B117" s="26"/>
     </row>
     <row r="118" spans="1:2">
       <c r="B118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -8562,35 +9270,35 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B128" s="26"/>
     </row>
     <row r="129" spans="1:2">
       <c r="B129" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B143" s="26"/>
     </row>
     <row r="144" spans="1:2">
       <c r="B144" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B159" s="26"/>
     </row>
     <row r="160" spans="1:2">
       <c r="B160" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -8612,7 +9320,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -8622,29 +9330,29 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" s="17"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C10" s="17"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -8659,7 +9367,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -8672,87 +9380,87 @@
     </row>
     <row r="31" spans="1:12">
       <c r="B31" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="C46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="C89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="C98" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="C107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -8766,99 +9474,99 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B115" s="17"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B165" s="17"/>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20"/>
@@ -8869,58 +9577,58 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B318" s="17"/>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B328" s="17"/>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B335" s="17"/>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B343" s="17"/>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -8942,18 +9650,18 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -8962,27 +9670,27 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -8990,12 +9698,12 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="20" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -9003,17 +9711,17 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -9022,7 +9730,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -9033,17 +9741,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -9061,12 +9769,276 @@
       <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C37" s="17"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="B92" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C92" s="17"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="B104" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C104" s="17"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="B118" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" s="17"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" s="17" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="F59" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" s="17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="F91" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="17" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ListHandOver/Training_User.xlsx
+++ b/ListHandOver/Training_User.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="367">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -2278,6 +2278,45 @@
   </si>
   <si>
     <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Khởi tạo 1 LinkedList và Node cho LinkedList</t>
+  </si>
+  <si>
+    <t>Tạo phương thức Add cho LinkdedList để có thể thêm 1 Node mới vào LinkdedList</t>
+  </si>
+  <si>
+    <t>Tạo phương thức get để lấy 1 Node cuả LinkdedList dựa trên chỉ số truyền vào</t>
+  </si>
+  <si>
+    <t>Ta có thể lấy giá trị ở chỉ số 1 là "Item 2" với phương thức get</t>
+  </si>
+  <si>
+    <t>Tạo phương thức remove để xóa đi 1 Node của LinkedList dựa trên chỉ số truyền vào</t>
+  </si>
+  <si>
+    <t>Sau khi xóa vị trí số 2 thì node ở đây không tồn tại</t>
+  </si>
+  <si>
+    <t>Sets</t>
+  </si>
+  <si>
+    <t>là một loại object cho phép bạn lưu trữ dữ liệu một cách duy nhất, không trùng lặp.</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Có thể tạo 1 mảng mới theo một điều kiện nào đó từ một tập giá trị ban đầu</t>
+  </si>
+  <si>
+    <t>Hashtable + Hashing</t>
+  </si>
+  <si>
+    <t>Hashing là phân phối các cặp khóa/giá trị trên một mảng. Nó sử dụng một hash function (hàm băm) để chuyển đổi các khóa có giá trị lớn thành giá trị nhỏ hơn và sử dụng số nhỏ hơn đó làm chỉ mục trong một bảng gọi là hash table</t>
+  </si>
+  <si>
+    <t>Khởi tạo 1 Hashtable cơ bản với 3 chức năng get, set và remove item</t>
   </si>
 </sst>
 </file>
@@ -6686,6 +6725,348 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495709</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>133649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21231225"/>
+          <a:ext cx="2934109" cy="2143424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>410058</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>143409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23936325"/>
+          <a:ext cx="3458058" cy="3829584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>515102</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>38770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28384500"/>
+          <a:ext cx="5391902" cy="4801270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323971</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>43</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="31127700"/>
+          <a:ext cx="866896" cy="304843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342019</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>113357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="33909000"/>
+          <a:ext cx="7047619" cy="7542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581191</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>104816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="37719000"/>
+          <a:ext cx="1190791" cy="295316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581532</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>152767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="42291000"/>
+          <a:ext cx="3629532" cy="2629267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>267843</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>143214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="45720000"/>
+          <a:ext cx="8192643" cy="2429214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361067</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>8619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="49339500"/>
+          <a:ext cx="7066667" cy="7247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6955,10 +7336,10 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9914,11 +10295,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -10032,13 +10411,80 @@
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="1:2">
       <c r="B108" s="17" t="s">
         <v>353</v>
       </c>
     </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="163" spans="11:11">
+      <c r="K163" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="197" spans="13:13">
+      <c r="M197" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C255" s="17"/>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ListHandOver/Training_User.xlsx
+++ b/ListHandOver/Training_User.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ListHandOver" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="Scope của variables" sheetId="9" r:id="rId7"/>
     <sheet name="Làm việc với con trỏ this" sheetId="10" r:id="rId8"/>
     <sheet name="CTDL và giải thuật" sheetId="11" r:id="rId9"/>
+    <sheet name="Lập trình hướng đối tượng" sheetId="12" r:id="rId10"/>
+    <sheet name="Lập trình bất đồng bộ" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="374">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -2317,6 +2319,27 @@
   </si>
   <si>
     <t>Khởi tạo 1 Hashtable cơ bản với 3 chức năng get, set và remove item</t>
+  </si>
+  <si>
+    <t>Encapsulation (Tính đóng gói)</t>
+  </si>
+  <si>
+    <t>che giấu dữ liệu, không cho phép truy cập dữ liệu trực tiếp từ bên ngoài, mà phải thông qua các method được cung cấp</t>
+  </si>
+  <si>
+    <t>Inheritance (Tính kế thừa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đối tượng con sẽ kế thừa những thuộc tính của đối tượng cha mà không cần phải định nghĩa lại. </t>
+  </si>
+  <si>
+    <t>Mặc dù, JavaScript không hỗ trợ trực tiếp tính kế thừa, tuy nhiên ta vẫn có thể tuỳ biến để áp dụng tính chất này trong JavaScript.</t>
+  </si>
+  <si>
+    <t>Polymorphism (Tính đa hình), Abstraction (Tính trừa tượng)</t>
+  </si>
+  <si>
+    <t>Javascript không có class và Interface nên tính chất này không được thể hiện. Tuy nhiên Typescript đã có và thể hiện được tính 2 chất này.</t>
   </si>
 </sst>
 </file>
@@ -7070,6 +7093,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>343543</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="4610743" cy="2105319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39637</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>29091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3571875"/>
+          <a:ext cx="11012437" cy="3696216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7335,11 +7439,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8783,6 +8887,79 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D162"/>

--- a/ListHandOver/Training_User.xlsx
+++ b/ListHandOver/Training_User.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="ListHandOver" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="CTDL và giải thuật" sheetId="11" r:id="rId9"/>
     <sheet name="Lập trình hướng đối tượng" sheetId="12" r:id="rId10"/>
     <sheet name="Lập trình bất đồng bộ" sheetId="13" r:id="rId11"/>
+    <sheet name="Exception handling" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="396">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -2340,6 +2341,72 @@
   </si>
   <si>
     <t>Javascript không có class và Interface nên tính chất này không được thể hiện. Tuy nhiên Typescript đã có và thể hiện được tính 2 chất này.</t>
+  </si>
+  <si>
+    <t>Call back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">là một hàm sẽ được thực hiện sau khi một hàm khác đã thực hiện xong </t>
+  </si>
+  <si>
+    <t>Callback là một cách để đảm bảo code nhất định không thực thi cho đến khi code khác thực hiện xong</t>
+  </si>
+  <si>
+    <t>Giả sử ta có quy trình gửi mail như bên dưới</t>
+  </si>
+  <si>
+    <t>Và sẽ không có vấn đề nếu tiến trình gửi mail không lâu</t>
+  </si>
+  <si>
+    <t>Tuy nhiên nếu gửi mail quá lâu thì việc đợi để thông báo thành công sẽ diễn ra sau. Như này</t>
+  </si>
+  <si>
+    <t>Ta có thể dùng call back để đợi wait() chạy xong mới thực hiện end()</t>
+  </si>
+  <si>
+    <t>Promise</t>
+  </si>
+  <si>
+    <t>là một cơ chế trong JavaScript giúp bạn thực thi các tác vụ bất đồng bộ mà không rơi vào tình trạng các hàm callback lồng vào nhau ở quá nhiều tầng.</t>
+  </si>
+  <si>
+    <t>resolve sẽ dùng để gọi khi thao tác xử lý thành công</t>
+  </si>
+  <si>
+    <t>reject sẽ dùng để gọi khi thao tác xử lý thất bại</t>
+  </si>
+  <si>
+    <t>Async/await</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vậy để tránh viết như minh họa bên dưới </t>
+  </si>
+  <si>
+    <t>Ta có thể viết với Promise dạng như sau</t>
+  </si>
+  <si>
+    <t>Async - khai báo một hàm bất đồng bộ</t>
+  </si>
+  <si>
+    <t>Await - tạm dừng việc thực hiện các hàm async</t>
+  </si>
+  <si>
+    <t>Giả sử các hàm getValue là các API giá trị trả về là bất đồng bộ ta có thể viết như sau</t>
+  </si>
+  <si>
+    <t>Exception handling</t>
+  </si>
+  <si>
+    <t>Để có thể xử lý lỗi ngoại lệ ta có thể xem ví dụ sau</t>
+  </si>
+  <si>
+    <t>Trong try sẽ là xử lý để lấy ra thông tin người dùng</t>
+  </si>
+  <si>
+    <t>Trường hợp một lỗi nào đó phát sinh trong quá trình lấy thông tin thì catch sẽ được thực thi</t>
+  </si>
+  <si>
+    <t>Finally được can thiệp ở trường hợp này là nếu quá trình lấy thông tin lỗi thì hasErr, nên giá trị hasUser được set lại false</t>
   </si>
 </sst>
 </file>
@@ -3030,6 +3097,451 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>268099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>322</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1314450"/>
+          <a:ext cx="10021699" cy="2305372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>191888</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4191000"/>
+          <a:ext cx="9945488" cy="2686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>591909</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>143241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7429500"/>
+          <a:ext cx="9735909" cy="2619741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9867</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10858500"/>
+          <a:ext cx="2448267" cy="2857899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57315</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="12096750"/>
+          <a:ext cx="1181265" cy="495369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1361</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>86144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14230350"/>
+          <a:ext cx="9754961" cy="3000794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Avoiding Callback Hell with Async.js"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17830800"/>
+          <a:ext cx="6076950" cy="4562475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552782</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>134033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23050500"/>
+          <a:ext cx="2381582" cy="4896533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419282</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>28750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771775" y="24869775"/>
+          <a:ext cx="1305107" cy="1257475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514762</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>47932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29660850"/>
+          <a:ext cx="2953162" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371952</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="3419952" cy="2581635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7439,11 +7951,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8891,9 +9403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -8950,13 +9460,144 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="B56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="F63" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="B149" s="20"/>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="G5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="G6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="G7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ListHandOver/Training_User.xlsx
+++ b/ListHandOver/Training_User.xlsx
@@ -24,6 +24,11 @@
     <sheet name="Lập trình hướng đối tượng" sheetId="12" r:id="rId10"/>
     <sheet name="Lập trình bất đồng bộ" sheetId="13" r:id="rId11"/>
     <sheet name="Exception handling" sheetId="14" r:id="rId12"/>
+    <sheet name="Validations" sheetId="15" r:id="rId13"/>
+    <sheet name="Modules" sheetId="16" r:id="rId14"/>
+    <sheet name="Khái niệm chuyên sâu" sheetId="17" r:id="rId15"/>
+    <sheet name="Tìm hiểu clean code" sheetId="18" r:id="rId16"/>
+    <sheet name="Tìm hiểu design pattern" sheetId="19" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="513">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -78,10 +83,6 @@
   </si>
   <si>
     <t>quan.nguyen</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Overview Systeam</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -363,54 +364,6 @@
       </rPr>
       <t>ợng</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>14/ Tìm hi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u chuyên sâu các khái ni</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ệ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m sau</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>- IIFE</t>
@@ -502,58 +455,6 @@
   </si>
   <si>
     <t xml:space="preserve">19/ Event Loop </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>15/ Tìm hi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u clean code</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>16/ Tìm hi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ể</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>u design pattern</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2408,6 +2309,457 @@
   <si>
     <t>Finally được can thiệp ở trường hợp này là nếu quá trình lấy thông tin lỗi thì hasErr, nên giá trị hasUser được set lại false</t>
   </si>
+  <si>
+    <t>Validations</t>
+  </si>
+  <si>
+    <t>Form Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi người dùng nhập các thông tin vào một biểu mẫu (form) trước khi gửi tới máy chủ. </t>
+  </si>
+  <si>
+    <t>Chẳng hạn biểu mẫu đăng ký tài khoản. Lúc này các thông tin mà người dùng nhập vào biểu mẫu cần phải được xác thực (validate).</t>
+  </si>
+  <si>
+    <t>Kiểm tra bắt buộc phải nhập cho 1 input</t>
+  </si>
+  <si>
+    <t>Kiểm tra giá trị nhập có phải là email</t>
+  </si>
+  <si>
+    <t>Kiểm tra giá trị nhập không được quá n kí tự</t>
+  </si>
+  <si>
+    <t>Còn rất nhiều trường hợp có thể kiểm tra với javascript khác</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Module giống như một chương của quyển sách, nó có thể bao gồm một tập các hàm để giúp xử lý một chức năng nào đó</t>
+  </si>
+  <si>
+    <t>Các chức năng khác nhau có thể có những module khác nhau</t>
+  </si>
+  <si>
+    <t>Ta có thể tạo 1 Modules đơn giản như sau.</t>
+  </si>
+  <si>
+    <t>Tại file demo.js ta sẽ tạo 1 Modules cơ bản chứa trạng thái thông báo lỗi common như sau</t>
+  </si>
+  <si>
+    <t>Để có thể sử dụng được tại 1 file js khác ta có thể gọi bằng cách</t>
+  </si>
+  <si>
+    <r>
+      <t>14/ Tìm hi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u chuyên sâu các khái ni</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m sau</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> IIFE</t>
+  </si>
+  <si>
+    <t>là viết tắt của Immediately Invoked Function Expression, có nghĩa là khởi tạo một function và thực thi nó ngay lập tức</t>
+  </si>
+  <si>
+    <t>Cú pháp của IIFE là:</t>
+  </si>
+  <si>
+    <t>Ta có thể truyền tham số cho IIFE như sau:</t>
+  </si>
+  <si>
+    <t>Một ví dụ cơ bản sau</t>
+  </si>
+  <si>
+    <t>Một số lưu ý sử dụng khi dùng IIFE</t>
+  </si>
+  <si>
+    <t>dùng ;</t>
+  </si>
+  <si>
+    <t>Nếu không dùng chấm phẩy ta sẽ có 1 đoạn mã như này và LỖI</t>
+  </si>
+  <si>
+    <t>Là hàm Private</t>
+  </si>
+  <si>
+    <t>Hàm sayHello không được hiểu như 1 hàm bình thường và không dùng gọi lại để thực thi bên ngoài</t>
+  </si>
+  <si>
+    <t>Tuy nhiên có thể gọi lại chính nó trong phạm vi cũng là chính nó</t>
+  </si>
+  <si>
+    <t>Áp  dụng thử đóng gói 1 user với ví dụ sau đây</t>
+  </si>
+  <si>
+    <t>Closures</t>
+  </si>
+  <si>
+    <t>function được viết lồng trong function cha và function con có thể truy cập được biến nằm ở function cha</t>
+  </si>
+  <si>
+    <t>Kết luận với Closures</t>
+  </si>
+  <si>
+    <t>Biến bên ngoài hàm cha có thể giữ trạng thái sau nhiều lần gọi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giá trị sẽ thay đổi nếu trong hàm con thực hiện thay đổi </t>
+  </si>
+  <si>
+    <t>Hoisting</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>Hàm getName1 được gọi trước khi nó được định nghĩa tuy nhiên vẫn chạy tốt.</t>
+  </si>
+  <si>
+    <t>Bởi vì khi biên dịch thì các định nghĩa hàm được lôi lên trên và thực hiện trước.</t>
+  </si>
+  <si>
+    <t>Biến</t>
+  </si>
+  <si>
+    <t>Nếu giống hàm thì nó sẽ bê phần khai báo lên đầu</t>
+  </si>
+  <si>
+    <t>Nhưng không hoisting với 1 biến nó sẽ có dạng này</t>
+  </si>
+  <si>
+    <t>Có thể hiểu nó chỉ bê phần định nghĩa biến lên đầu thôi chứ k bê cả phần khai báo giá trị</t>
+  </si>
+  <si>
+    <t>Strict mode</t>
+  </si>
+  <si>
+    <t>Sử dụng đoạn text "use strict"; ở đầu là đã có thể vi vu với  Strict mode. Lưu ý: đặt ở đầu file thì dùng cho toàn bộ file đặt ở đầu hàm thì chỉ dùng cho hàm đó.</t>
+  </si>
+  <si>
+    <t>Sẽ có lỗi khi bạn thực hiện thao tác xoá biến, hàm, hay argument</t>
+  </si>
+  <si>
+    <t>Các tham số của một hàm không được phép trùng nhau</t>
+  </si>
+  <si>
+    <t>Không thể sử dụng with</t>
+  </si>
+  <si>
+    <t>Không đươc phép ghi đè lên thuộc tính chỉ đươc phép đọc</t>
+  </si>
+  <si>
+    <t>This keyword</t>
+  </si>
+  <si>
+    <t>Khi một function được định nghĩa thì con trỏ this chứa item của object gọi tới function đó, và thông qua this cũng có thể lấy các item nằm trong object gọi tới function</t>
+  </si>
+  <si>
+    <t>Sử dụng this ở phạm vi global</t>
+  </si>
+  <si>
+    <t>Trong phạm vi global, khi code được thực thi trong trình duyệt, thì mọi variables ( biến ) và function dạng Global đều được định nghĩa trong Object window.</t>
+  </si>
+  <si>
+    <t>Nên khi dùng this trong hàm dạng Global, nó sẽ trỏ tới (và mang giá trị) của Object window (điều này không đúng khi dùng trong strict mode)</t>
+  </si>
+  <si>
+    <t>Window là thằng quản toàn bộ các ứng dụng JavaScript chạy trên nền web</t>
+  </si>
+  <si>
+    <t>Overview Systeam</t>
+  </si>
+  <si>
+    <t>Sử dụng this ở phạm vi object method</t>
+  </si>
+  <si>
+    <t>This sẽ trỏ đến đối tượng cụ thể</t>
+  </si>
+  <si>
+    <t>Sử dụng this với call hoặc apply</t>
+  </si>
+  <si>
+    <t>This sẽ trỏ đến đối tượng được truyền vào</t>
+  </si>
+  <si>
+    <t>bind, call, apply</t>
+  </si>
+  <si>
+    <t>Gọi hàm và cho phép bạn truyền vào một object và các đối số phân cách nhau bởi dấu phẩy</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>Gọi hàm và cho phép bạn truyền vào một object và các đối số thông qua mảng</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>Trả về một hàm số mới, cho phép bạn truyền vào một object và các đối số phân cách nhau bởi dấu phẩy</t>
+  </si>
+  <si>
+    <t>function.call(thisArg, arg1, arg2, ...)</t>
+  </si>
+  <si>
+    <t>function.apply(thisArg, [argsArray])</t>
+  </si>
+  <si>
+    <t>var newFunction = fun.bind(thisArg[, arg1[, arg2[, ...]]])</t>
+  </si>
+  <si>
+    <t>Nhìn chung, hàm call và apply là gần giống nhau. Chúng đều gọi hàm trực tiếp. Chỉ khác ở cách truyền tham số đầu vào</t>
+  </si>
+  <si>
+    <t>Hàm bind thì hơi khác hơn một chút. Hàm này không gọi hàm trực tiếp mà nó sẽ trả về một hàm mới. Và bạn có thể sử dụng hàm số mới này sau. Về cách truyền tham số vào thì nó giống với hàm call.</t>
+  </si>
+  <si>
+    <t>Catching, throwing errors</t>
+  </si>
+  <si>
+    <t>Cần lường trước để bắt lỗi và xử lý nó.</t>
+  </si>
+  <si>
+    <t>Một số trường hợp gặp lỗi mà ta không thể lường trước được ví dụ runtime error hoặc connect fail database với javascript</t>
+  </si>
+  <si>
+    <t>Try - Catch - Finally</t>
+  </si>
+  <si>
+    <t>try {...}: Bao quanh vùng code khả nghi, có khả năng sinh ra lỗi.</t>
+  </si>
+  <si>
+    <t>catch { ... }: Xử lý thông tin nếu có lỗi.</t>
+  </si>
+  <si>
+    <t>finally { ... }: Đoạn code này luôn luôn được gọi để xử lý các tác vụ còn lại, ví dụ như reset biến hay các tác vụ khác.</t>
+  </si>
+  <si>
+    <t>Câu lệnh throw</t>
+  </si>
+  <si>
+    <t>Khi mà xảy ra một lỗi, JavaScript sẽ tự động dừng và tạo ra một thông báo lỗi.</t>
+  </si>
+  <si>
+    <t>Khi đó JavaScript sẽ ném ra một ngoại lệ</t>
+  </si>
+  <si>
+    <t>Khi sử dụng câu lệnh throw, nó cho phép bạn tạo ra một lỗi tùy chỉnh (custom error) của mình.</t>
+  </si>
+  <si>
+    <t>Promise, Async, await</t>
+  </si>
+  <si>
+    <t>Call Stack là một cấu trúc dữ liệu dạng ngăn xếp (stack) dùng để chứa thông tin về hoạt động của chương trình máy tính trong lúc thực thi</t>
+  </si>
+  <si>
+    <t>Tuy nhiên có quá nhiều callback lồng nhau sẽ xuất hiện khái niện mà callback Hell</t>
+  </si>
+  <si>
+    <t>Khi gặp callback hell có thể dùng promise để có 1 giải pháp tốt hơn</t>
+  </si>
+  <si>
+    <t>Một Promise có 3 trạng thái sau:</t>
+  </si>
+  <si>
+    <t>pending: đang chờ kết quả</t>
+  </si>
+  <si>
+    <t>fulfilled: đã có kết quả</t>
+  </si>
+  <si>
+    <t>rejected: lỗi xảy ra</t>
+  </si>
+  <si>
+    <t>Async/Await</t>
+  </si>
+  <si>
+    <t>Với callback Hell dùng Promise chưa triệt để thì ta có thể xử lý bất đồng bộ một cách dễ nhìn và dễ đọc hơn với async/await.</t>
+  </si>
+  <si>
+    <t>Không thay thế promise mà nó kết hợp với promise để cho ra cú pháp dễ nhìn hơn.</t>
+  </si>
+  <si>
+    <r>
+      <t>15/ Tìm hi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u clean code</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng tên có ý nghĩa và có thể phát âm</t>
+  </si>
+  <si>
+    <t>Tên biến cần phải thể hiện rõ ý định và mục đích của biến đó, không nên quá dài.</t>
+  </si>
+  <si>
+    <t>Ở line 1 và 2 cách đặt tên 1 thì quá tối nghĩa còn cách 2 thì rõ nghĩa tuy nhiên quá dài dòng.</t>
+  </si>
+  <si>
+    <t>Ta có thể chọn cách đặt tên đơn giản hơn ở line 3</t>
+  </si>
+  <si>
+    <t>Tên có thể phát âm được</t>
+  </si>
+  <si>
+    <t>Đừng đặt tên một biến không có nghĩa mà còn k thể đọc được</t>
+  </si>
+  <si>
+    <t>Sử dụng cùng một từ cho cùng một loại biến</t>
+  </si>
+  <si>
+    <t>Cùng một ý nghĩa ở 2 nơi khác nhau thì nên đặt cùng 1 từ thay vì 1 chổ là user một chổ là account</t>
+  </si>
+  <si>
+    <t>Sử dụng tên có thể tìm kiếm được</t>
+  </si>
+  <si>
+    <t>Không thêm bối cảnh không cần thiết</t>
+  </si>
+  <si>
+    <t>Chỉ cần</t>
+  </si>
+  <si>
+    <t>Hàm</t>
+  </si>
+  <si>
+    <t>Hàm chỉ nên giải quyết 1 vấn đề</t>
+  </si>
+  <si>
+    <t>Khi một hàm thực hiện nhiều hơn 1 việc, chúng sẽ trở nên khó khăn hơn để viết code, test, và suy luận.</t>
+  </si>
+  <si>
+    <t>Khi bạn có thể tách biệt một hàm để chỉ thực hiện một hành động, thì sẽ dễ dàng hơn để tái cấu trúc và code của bạn sẽ dễ đọc hơn nhiều</t>
+  </si>
+  <si>
+    <t>Tên hàm phải nói ra được những gì chúng làm</t>
+  </si>
+  <si>
+    <t>Nhìn vào tên hàm thôi mà chính bạn hoặc người khác cũng hiểu mục đích của hàm đó làm gì.</t>
+  </si>
+  <si>
+    <t>Ví dụ kiểm tra user có tồn tại trong database không thì thay vì checkUser() ta có thể đặt 1 tên hàm là hasUser</t>
+  </si>
+  <si>
+    <t>Hàm chỉ nên có một lớp trừu tượng</t>
+  </si>
+  <si>
+    <t>Khi có nhiều hơn một lớp trừu tượng thì hàm của bạn đang làm quá nhiều. Chia nhỏ các hàm ra sẽ làm cho việc test và tái sử dụng dễ dàng hơn.</t>
+  </si>
+  <si>
+    <t>Tránh trùng lặp code</t>
+  </si>
+  <si>
+    <t>Việc có hai hàm xử lý cùng một chức năng như nhau thì là việc phải tránh, đó là code trùng lặp. code trùng lặp thì không tốt bởi vì nếu bạn cần thay đổi cùng một logic, bạn phải sửa ở nhiều hơn một nơi.</t>
+  </si>
+  <si>
+    <t>Không sử dụng các cờ như đối số của hàm</t>
+  </si>
+  <si>
+    <t>Các biến cờ cho người dùng của bạn biết rằng hàm thực hiện nhiều hơn một việc. hàm chỉ nên làm một nhiệm vụ.</t>
+  </si>
+  <si>
+    <t>Vì vậy hãy tách hàm của bạn nếu chúng đang làm cho code rẽ nhánh dựa trên một biến boolean.</t>
+  </si>
+  <si>
+    <t>Đừng ghi lên những hàm toàn cục</t>
+  </si>
+  <si>
+    <t>Sẽ dễ xung đột làm ảnh hưởng đến các chức năng khác đang chạy của hệ thống</t>
+  </si>
+  <si>
+    <t>NGOÀI RA CÓ THỂ TUÂN THỦ THEO CÁC CHUẨN CODING RIÊNG CỦA TEAM HOẶC CÁC CHUẨN CỦA JAVASCRIPT NHƯ: Google JavaScript Style Guide, Airbnb JavaScript Style, Mozilla Coding style, Jquery Style Guide .v..v</t>
+  </si>
+  <si>
+    <r>
+      <t>16/ Tìm hi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u design pattern</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2416,7 +2768,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2528,6 +2880,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFABB2BF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -2658,7 +3016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2728,6 +3086,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3531,6 +3890,1090 @@
         <a:xfrm>
           <a:off x="0" y="571500"/>
           <a:ext cx="3419952" cy="2581635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>373058</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1714500"/>
+          <a:ext cx="11345858" cy="4848902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>134900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>10297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7239000"/>
+          <a:ext cx="11107700" cy="5534797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>192058</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>67482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13335000"/>
+          <a:ext cx="11164858" cy="5782482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>340</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1390650"/>
+          <a:ext cx="2438740" cy="638264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>562309</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="2391109" cy="209579"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>505066</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="1724266" cy="619211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>524203</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="2353003" cy="638264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533984</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="3200400"/>
+          <a:ext cx="4182059" cy="866896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>162373</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5133975"/>
+          <a:ext cx="3210373" cy="943107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95753</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="5257800"/>
+          <a:ext cx="3600953" cy="609685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>306289</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6667500"/>
+          <a:ext cx="10669489" cy="1200318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419839</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8191500"/>
+          <a:ext cx="5296639" cy="1619476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515188</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10477500"/>
+          <a:ext cx="6001588" cy="2591162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29430</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13906500"/>
+          <a:ext cx="6125430" cy="1905266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>191292</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17335500"/>
+          <a:ext cx="5677692" cy="1019317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>486523</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19354800"/>
+          <a:ext cx="5363323" cy="657317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372208</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>104896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20764500"/>
+          <a:ext cx="5249008" cy="866896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>516038</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>57238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="23050500"/>
+          <a:ext cx="12098438" cy="628738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>230249</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>133515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24098250"/>
+          <a:ext cx="11812649" cy="1181265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>573367</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>28765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26289000"/>
+          <a:ext cx="13374967" cy="1362265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95944</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>181160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29527500"/>
+          <a:ext cx="4972744" cy="1324160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>67450</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>114570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31518225"/>
+          <a:ext cx="5553850" cy="1933845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>229313</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>143134</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="34290000"/>
+          <a:ext cx="5106113" cy="1857634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>477082</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>114502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="41910000"/>
+          <a:ext cx="5963482" cy="1448002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191037</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="3848637" cy="476316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152677</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1714500"/>
+          <a:ext cx="1981477" cy="238158"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552697</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3429000"/>
+          <a:ext cx="1771897" cy="600159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400273</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="3371850"/>
+          <a:ext cx="1600423" cy="666843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7952,10 +9395,10 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8011,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="10"/>
@@ -8027,7 +9470,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="10"/>
@@ -8043,7 +9486,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="10"/>
@@ -8059,7 +9502,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="10"/>
@@ -8075,7 +9518,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="10"/>
@@ -8091,7 +9534,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="10"/>
@@ -8107,7 +9550,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="10"/>
@@ -8123,7 +9566,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="10"/>
@@ -8139,7 +9582,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="10"/>
@@ -8155,7 +9598,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="10"/>
@@ -8171,7 +9614,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="10"/>
@@ -8187,7 +9630,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="10"/>
@@ -8203,7 +9646,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="10"/>
@@ -8219,7 +9662,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="10"/>
@@ -8235,7 +9678,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="10"/>
@@ -8251,7 +9694,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="10"/>
@@ -8267,7 +9710,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="10"/>
@@ -8283,7 +9726,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="10"/>
@@ -8299,7 +9742,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="10"/>
@@ -8315,7 +9758,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="10"/>
@@ -8331,7 +9774,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="10"/>
@@ -8347,7 +9790,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="10"/>
@@ -8363,7 +9806,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="10"/>
@@ -8379,7 +9822,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="10"/>
@@ -8395,7 +9838,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="10"/>
@@ -8411,7 +9854,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="10"/>
@@ -8427,7 +9870,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="10"/>
@@ -8443,7 +9886,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="10"/>
@@ -8459,7 +9902,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="10"/>
@@ -8475,7 +9918,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="10"/>
@@ -8491,7 +9934,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="10"/>
@@ -8507,7 +9950,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="10"/>
@@ -8523,7 +9966,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="10"/>
@@ -8539,7 +9982,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="10"/>
@@ -8555,7 +9998,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="10"/>
@@ -8571,7 +10014,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="10"/>
@@ -8587,7 +10030,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="10"/>
@@ -8603,7 +10046,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="10"/>
@@ -8619,7 +10062,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="10"/>
@@ -8635,7 +10078,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="10"/>
@@ -8651,7 +10094,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="10"/>
@@ -8667,7 +10110,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="10"/>
@@ -8683,7 +10126,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="10"/>
@@ -8699,7 +10142,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="10"/>
@@ -8715,7 +10158,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="10"/>
@@ -8731,7 +10174,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="10"/>
@@ -8747,7 +10190,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="10"/>
@@ -8763,7 +10206,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="10"/>
@@ -8779,7 +10222,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="10"/>
@@ -8795,7 +10238,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="10"/>
@@ -8811,7 +10254,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="10"/>
@@ -8827,7 +10270,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="10"/>
@@ -8843,7 +10286,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="10"/>
@@ -8859,7 +10302,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="10"/>
@@ -8875,7 +10318,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="10"/>
@@ -8891,7 +10334,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="10"/>
@@ -8907,7 +10350,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="10"/>
@@ -8923,7 +10366,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="10"/>
@@ -8939,7 +10382,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="10"/>
@@ -8955,7 +10398,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>71</v>
+        <v>406</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="10"/>
@@ -8971,7 +10414,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="10"/>
@@ -8987,7 +10430,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="12"/>
       <c r="D64" s="10"/>
@@ -9003,7 +10446,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="10"/>
@@ -9019,7 +10462,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="10"/>
@@ -9035,7 +10478,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="10"/>
@@ -9051,7 +10494,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="10"/>
@@ -9067,7 +10510,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="10"/>
@@ -9083,7 +10526,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="10"/>
@@ -9099,7 +10542,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>83</v>
+        <v>483</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="10"/>
@@ -9115,7 +10558,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>84</v>
+        <v>512</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="10"/>
@@ -9131,7 +10574,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="10"/>
@@ -9147,7 +10590,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="10"/>
@@ -9163,7 +10606,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="10"/>
@@ -9179,7 +10622,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
@@ -9195,7 +10638,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="10"/>
@@ -9213,7 +10656,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="10"/>
@@ -9231,7 +10674,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="10"/>
@@ -9249,7 +10692,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="10"/>
@@ -9267,7 +10710,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="10"/>
@@ -9283,7 +10726,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="10"/>
@@ -9301,7 +10744,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="10"/>
@@ -9319,7 +10762,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="10"/>
@@ -9337,7 +10780,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="10"/>
@@ -9355,7 +10798,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="10"/>
@@ -9409,36 +10852,36 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="20" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -9448,7 +10891,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="B41" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -9462,94 +10905,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="20" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="B56" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="F63" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B149" s="20"/>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -9564,40 +11007,717 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="G5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="G6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="G7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S240"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="G29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="S37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="J45" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="20" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="B87" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="B117" s="20"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="B118" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="B148" s="20"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="B149" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B192" s="20"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="B194" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="B195" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="B197" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="B198" s="31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="B200" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="B201" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="B217" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="B218" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="B219" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B230" s="20"/>
+      <c r="C230" s="20"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="B234" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="C235" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="C236" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="C237" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="20" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="H5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="H6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="C34" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="C37" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="C40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="C41" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9611,134 +11731,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" s="17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -9746,194 +11866,194 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="B90" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="B91" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="C93" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="B96" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="C97" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="C98" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="C99" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="C100" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="C101" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="B104" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="B114" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="21" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119" spans="1:3">
       <c r="B119" s="17" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -9953,133 +12073,133 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" s="17"/>
     </row>
     <row r="17" spans="1:6">
       <c r="F17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="F20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="C45" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="G85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B94" s="16"/>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C105" s="17"/>
     </row>
@@ -10100,130 +12220,130 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="J24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="20" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="B73" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="K76" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="K77" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="2:14">
       <c r="B84" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="2:14">
       <c r="N87" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="2:14">
       <c r="N88" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="2:14">
       <c r="N89" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="2:14">
       <c r="N90" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="2:14">
       <c r="N91" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
@@ -10231,53 +12351,53 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="B160" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="B166" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="B172" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="B176" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="B180" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="23"/>
       <c r="B187" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="20"/>
@@ -10285,42 +12405,42 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -10340,7 +12460,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -10354,45 +12474,45 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="C16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -10402,7 +12522,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="17" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -10412,7 +12532,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -10422,46 +12542,46 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="26" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B95" s="26"/>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="26" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B106" s="26"/>
     </row>
     <row r="107" spans="1:2">
       <c r="B107" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="26" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B117" s="26"/>
     </row>
     <row r="118" spans="1:2">
       <c r="B118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -10469,35 +12589,35 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B128" s="26"/>
     </row>
     <row r="129" spans="1:2">
       <c r="B129" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="26" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B143" s="26"/>
     </row>
     <row r="144" spans="1:2">
       <c r="B144" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B159" s="26"/>
     </row>
     <row r="160" spans="1:2">
       <c r="B160" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -10519,7 +12639,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -10529,29 +12649,29 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C2" s="17"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="17" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C10" s="17"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -10566,7 +12686,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -10579,87 +12699,87 @@
     </row>
     <row r="31" spans="1:12">
       <c r="B31" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="17" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="C46" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="C89" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="C98" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="17" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="C107" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="20" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -10673,99 +12793,99 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B115" s="17"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B165" s="17"/>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="17" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="17" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="20" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20"/>
@@ -10776,58 +12896,58 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="17" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B318" s="17"/>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B328" s="17"/>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B335" s="17"/>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B343" s="17"/>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -10849,18 +12969,18 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -10869,27 +12989,27 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -10897,12 +13017,12 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -10910,17 +13030,17 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -10929,7 +13049,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -10950,7 +13070,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -10969,7 +13089,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -10979,97 +13099,97 @@
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="17" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C3" s="17"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C14" s="17"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C37" s="17"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C92" s="17"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="B104" s="17" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C104" s="17"/>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="20" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -11081,27 +13201,27 @@
     </row>
     <row r="115" spans="1:8">
       <c r="B115" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -11115,13 +13235,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M258"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -11129,175 +13251,175 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C3" s="17"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C43" s="17"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="17" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="F59" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" s="17" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="F91" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="B108" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="17" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C255" s="17"/>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/ListHandOver/Training_User.xlsx
+++ b/ListHandOver/Training_User.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="ListHandOver" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <sheet name="Khái niệm chuyên sâu" sheetId="17" r:id="rId15"/>
     <sheet name="Tìm hiểu clean code" sheetId="18" r:id="rId16"/>
     <sheet name="Tìm hiểu design pattern" sheetId="19" r:id="rId17"/>
+    <sheet name="Lập trình hướng function" sheetId="20" r:id="rId18"/>
+    <sheet name="Workers" sheetId="21" r:id="rId19"/>
+    <sheet name="Event Loop " sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="563">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -446,60 +449,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>i: while..., do...while, for, forEach, for in, for of,...</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>18/ Workers</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">19/ Event Loop </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>17/ L</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ậ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p trình h</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ướ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ng function</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2759,6 +2708,207 @@
       </rPr>
       <t>u design pattern</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Design pattern là một thuật ngữ được sử dụng trong ngành kỹ nghệ phần mềm nói chung, </t>
+  </si>
+  <si>
+    <t>là giải pháp tái sử dụng cho việc giải quyết các vấn đề giống nhau và thường xuyên ra trong quá trình phát triển phần mềm</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>được sử dụng để duy trì các phần code cụ thể độc lập, không phụ thuộc vào các thành phần khác</t>
+  </si>
+  <si>
+    <t>Ví dụ</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Từ đối tượng Student ban đầu với các thuộc tính name và age ta có thể định nghĩa showHobbies cho đối tượng student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singleton Pattern </t>
+  </si>
+  <si>
+    <t>mẫu design pattern chỉ cho phép chúng tạo ra một instantiation duy nhất của một Class.</t>
+  </si>
+  <si>
+    <t>Singleton giúp hạn chế  tạo nhiều đối tượng, sau khi đối tượng đầu tiên được tạo, nó sẽ trả về instant đã tạo của chính nó</t>
+  </si>
+  <si>
+    <t>Ngoài ra còn một số Design pattern khác</t>
+  </si>
+  <si>
+    <r>
+      <t>17/ L</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p trình h</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ướ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng function</t>
+    </r>
+  </si>
+  <si>
+    <t>là một phương pháp lập trình dựa trên các hàm toán học (function), tránh việc thay đổi giá trị của dữ liệu.</t>
+  </si>
+  <si>
+    <t>Lập trình hướng function</t>
+  </si>
+  <si>
+    <t>Ưu điểm</t>
+  </si>
+  <si>
+    <t>hướng đến tính kết hợp (composability) các hàm (function) để tối đa hóa khả năng tái sử dụng (reusability) trong chương trình</t>
+  </si>
+  <si>
+    <t>thay vì thực hiện tuần tự theo các bước với các biến để lưu trạng thái. Thì Functional Programming chú trọng đến thực thi luồng chương trình thông qua sự kết hợp các hàm bậc cao (high order function).</t>
+  </si>
+  <si>
+    <t>Nhược điểm</t>
+  </si>
+  <si>
+    <t>yêu cầu không gian bộ nhớ lớn. Vì nó không tạo ra một đơn vị mới. Cho nên mỗi lần khi sử dụng bạn cần tạo các đối tượng mới để thực hiện các hành động.</t>
+  </si>
+  <si>
+    <t>Trong một số tình huống khi mà chúng ta sử dụng lập trình hàm thì phải thực hiện nhiều thao tác khác nhau trên cùng một tập dữ liệu</t>
+  </si>
+  <si>
+    <t>Làm quen với lập trình hướng function</t>
+  </si>
+  <si>
+    <t>Pure function(Hàm thuần khiết)</t>
+  </si>
+  <si>
+    <t>Với các inputs giống nhau, luôn cho ra một output giống nhau, và không có hiệu ứng phụ</t>
+  </si>
+  <si>
+    <t>Đây là 1 hàm không thuần khiết vì nó sử dụng biến b ở bên ngoài</t>
+  </si>
+  <si>
+    <t>Sau khi biến hình mượn 1 biến c thì ta đã có 1 hàm thuần khiết</t>
+  </si>
+  <si>
+    <t>Function Composition(Sự tổng hợp của các hàm)</t>
+  </si>
+  <si>
+    <t>Là một tiến trình kết hợp hai hay nhiều hàm để tạo nên hàm mới hoặc thực hiện một nhiệm vụ gì đó.</t>
+  </si>
+  <si>
+    <t>Shared State(Biến chia sẻ)</t>
+  </si>
+  <si>
+    <t>Một shared scope bao gồm scope toàn cục và scope closure. Chúng được dùng chung quá nhiều nơi và rất khó để biết hàm nào đã làm thay đổi biến đó.</t>
+  </si>
+  <si>
+    <t>là bất cứ các biến, đối tượng, hoặc không gian bộ nhớ mà chúng tồn tại trong một pham vi được chia sẻ(shared scope).</t>
+  </si>
+  <si>
+    <t>Các hàm không nên chia sẻ nhau giữa các biến, dữ liệu.</t>
+  </si>
+  <si>
+    <t>Side Effects</t>
+  </si>
+  <si>
+    <t>là tất cả những thay đổi của state trong ứng dụng mà nó nằm bên ngoài hàm đang thực thi</t>
+  </si>
+  <si>
+    <t>18/ Workers</t>
+  </si>
+  <si>
+    <t>Workers</t>
+  </si>
+  <si>
+    <t>Worker Detection</t>
+  </si>
+  <si>
+    <t>Do Worker constructor function được truy cập thông qua window object, chúng ta có thể kiểm tra như sau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiểm tra xem trình duyệt hiện tại có hỗ trợ Worker hay không. </t>
+  </si>
+  <si>
+    <t>Create New Worker</t>
+  </si>
+  <si>
+    <t>Stop New Worker</t>
+  </si>
+  <si>
+    <t>w.terminate();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/ Event Loop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Loop </t>
+  </si>
+  <si>
+    <t>là một Queue, tất cả cá event được push vào Queue này, mỗi khi một sự kiện được phát ra nó sẽ được push vào Queue.</t>
+  </si>
+  <si>
+    <t>Trong Queue này, thứ tự thực hiện là vào trước thì sẽ được xử lí trước, vào sau thì được xử lí sau.</t>
+  </si>
+  <si>
+    <t>B1: hàm main được push vào trong Call Stack. Sau đó dòng lệnh console.log(‘A’) cũng được thêm vào Stack và được thực thi in ra A.</t>
+  </si>
+  <si>
+    <t>Sau đó, console.log(‘A’) được xóa khỏi Stack.</t>
+  </si>
+  <si>
+    <t>B2: Sau đó, hàm setTimeout được push vào Stack với một callback và timer là 2000ms.</t>
+  </si>
+  <si>
+    <t>setTimeout là một Browser APIs, nên được giao lại cho Browser xử lí timer này. Callback của setTimeout được Web APIs giữ cho tới khi đúng với số thời gian timeout, ở đây là 2000ms.</t>
+  </si>
+  <si>
+    <t>Callback này sẽ tự động được push vào Event Queue sau 2000ms nữa. setTimeout được xóa khỏi Stack.</t>
+  </si>
+  <si>
+    <t>B3: console.log(‘C’) được push vào Stack và được thực thi(invoke), in ra C. Sau đó, console.log(‘C’) được xóa khỏi Stack.</t>
+  </si>
+  <si>
+    <t>B4: Tiếp theo, hàm main đã thực thi xong và cũng được xóa khỏi Stack. Lúc này, Event Loop đã nhận callback exec() của setTimeout được chờ xử lý từ bước 2.</t>
+  </si>
+  <si>
+    <t>B5: lúc này Event Loop có một callback exec(), nó sẽ được push vào Stack và in ra B. Sau đó, exec() của setTimeout cũng được xóa khỏi Stack.</t>
   </si>
 </sst>
 </file>
@@ -3077,6 +3227,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3086,7 +3237,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4974,6 +5124,444 @@
         <a:xfrm>
           <a:off x="2457450" y="3371850"/>
           <a:ext cx="1600423" cy="666843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>181426</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1143000"/>
+          <a:ext cx="3229426" cy="981212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1021</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2667000"/>
+          <a:ext cx="7316221" cy="2829320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438722</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6334125"/>
+          <a:ext cx="4096322" cy="2314898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134049</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>10191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9715500"/>
+          <a:ext cx="5010849" cy="4772691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571702</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="11315700"/>
+          <a:ext cx="1448002" cy="1009791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>143320</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3048000"/>
+          <a:ext cx="3191320" cy="1629002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>305268</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4953000"/>
+          <a:ext cx="3353268" cy="1467055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>134305</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7239000"/>
+          <a:ext cx="6839905" cy="1657581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581957</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="6677957" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114997</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>67110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2476500"/>
+          <a:ext cx="4991797" cy="3115110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>543767</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="762000"/>
+          <a:ext cx="6030167" cy="1305107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9394,11 +9982,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -9411,41 +9999,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
@@ -9470,7 +10058,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="10"/>
@@ -9774,7 +10362,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="10"/>
@@ -9790,7 +10378,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="10"/>
@@ -9822,7 +10410,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="10"/>
@@ -9870,7 +10458,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="10"/>
@@ -10014,7 +10602,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="10"/>
@@ -10030,7 +10618,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="10"/>
@@ -10398,7 +10986,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="10"/>
@@ -10542,7 +11130,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="10"/>
@@ -10558,7 +11146,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="10"/>
@@ -10574,7 +11162,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>81</v>
+        <v>521</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="10"/>
@@ -10590,7 +11178,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="10"/>
@@ -10606,7 +11194,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="10"/>
@@ -10622,7 +11210,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="10"/>
@@ -10852,36 +11440,36 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="20" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -10891,7 +11479,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="B41" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -10911,88 +11499,88 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="B56" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="F63" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B149" s="20"/>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -11014,28 +11602,28 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="G5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="G6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="G7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -11056,44 +11644,44 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C2" s="17"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -11112,32 +11700,32 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -11157,384 +11745,384 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="G29" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:19">
       <c r="S37" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="J45" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="B72" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="B86" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="B87" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="20" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="B90" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="B101" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="20" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B117" s="20"/>
     </row>
     <row r="118" spans="1:2">
       <c r="B118" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="20" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B148" s="20"/>
     </row>
     <row r="149" spans="1:2">
       <c r="B149" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="21" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="20" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B192" s="20"/>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="B194" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="B195" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="21" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="B197" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="B198" s="31" t="s">
-        <v>457</v>
+      <c r="B198" s="28" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="B200" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="B201" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="20" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="20"/>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="B217" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="B218" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="B219" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="20" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="20"/>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="B234" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="C235" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="C236" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="C237" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -11548,19 +12136,19 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -11568,137 +12156,137 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="H5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="H6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="E11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="C14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="D21" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="20" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="C26" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="C27" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="C30" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="C31" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="C37" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="C40" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="C44" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -11709,15 +12297,260 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="B48" s="20"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>520</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7">
+      <c r="G28" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="B54" s="17"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" t="s">
+        <v>550</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11731,134 +12564,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="B20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="B35" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="B65" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -11866,200 +12699,270 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="B81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="B82" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="B83" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="B90" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="B91" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="C93" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="B96" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="C97" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="C98" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="C99" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="C100" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="C101" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="B104" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="B106" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="B107" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="B108" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="B111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="B112" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="B113" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="B114" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
     </row>
     <row r="119" spans="1:3">
       <c r="B119" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>562</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12073,133 +12976,133 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B1" s="16"/>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C15" s="17"/>
     </row>
     <row r="17" spans="1:6">
       <c r="F17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="F20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="C45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="21" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="G85" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B94" s="16"/>
     </row>
     <row r="95" spans="1:7">
       <c r="B95" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="B105" s="17" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C105" s="17"/>
     </row>
@@ -12220,130 +13123,130 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="J24" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="20" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="B73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="K76" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="K77" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="2:14">
       <c r="B84" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="2:14">
       <c r="N87" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="2:14">
       <c r="N88" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="2:14">
       <c r="N89" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="2:14">
       <c r="N90" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="2:14">
       <c r="N91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
@@ -12351,53 +13254,53 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="B160" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="B166" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="B172" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="B176" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="B180" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="23"/>
       <c r="B187" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="20"/>
@@ -12405,42 +13308,42 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="226" spans="2:2">
       <c r="B226" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="303" spans="2:2">
       <c r="B303" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -12460,7 +13363,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -12474,45 +13377,45 @@
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="17" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="C16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="2:7">
       <c r="B47" s="17" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -12522,7 +13425,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -12532,7 +13435,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -12542,46 +13445,46 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:2">
       <c r="B83" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B95" s="26"/>
     </row>
     <row r="96" spans="1:2">
       <c r="B96" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B106" s="26"/>
     </row>
     <row r="107" spans="1:2">
       <c r="B107" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B117" s="26"/>
     </row>
     <row r="118" spans="1:2">
       <c r="B118" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -12589,35 +13492,35 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B128" s="26"/>
     </row>
     <row r="129" spans="1:2">
       <c r="B129" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B143" s="26"/>
     </row>
     <row r="144" spans="1:2">
       <c r="B144" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="26" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B159" s="26"/>
     </row>
     <row r="160" spans="1:2">
       <c r="B160" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -12639,7 +13542,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -12649,29 +13552,29 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C2" s="17"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C10" s="17"/>
     </row>
     <row r="19" spans="1:12">
       <c r="B19" s="17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -12686,7 +13589,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="20" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -12699,87 +13602,87 @@
     </row>
     <row r="31" spans="1:12">
       <c r="B31" s="17" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="C32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="C46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="B78" s="17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="C89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="C98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="B106" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="C107" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -12793,99 +13696,99 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="17" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B115" s="17"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B165" s="17"/>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="20"/>
@@ -12896,58 +13799,58 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B318" s="17"/>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B328" s="17"/>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B335" s="17"/>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B343" s="17"/>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -12969,18 +13872,18 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -12989,27 +13892,27 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -13017,12 +13920,12 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -13030,17 +13933,17 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -13049,7 +13952,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -13070,7 +13973,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -13089,7 +13992,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="20" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -13099,97 +14002,97 @@
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C3" s="17"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C14" s="17"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C37" s="17"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="B92" s="17" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C92" s="17"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="B104" s="17" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C104" s="17"/>
     </row>
     <row r="105" spans="1:3">
       <c r="B105" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="20" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -13201,27 +14104,27 @@
     </row>
     <row r="115" spans="1:8">
       <c r="B115" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="B118" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -13243,7 +14146,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -13251,175 +14154,175 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C3" s="17"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C43" s="17"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="F59" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="B77" s="17" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="F91" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="B108" s="17" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="163" spans="11:11">
       <c r="K163" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="197" spans="13:13">
       <c r="M197" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" s="17" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="238" spans="2:2">
       <c r="B238" s="17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C255" s="17"/>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
